--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C627FE17-D0FD-4A69-ACDB-15829442866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B8E3C-3924-461B-BFC2-2E00211F07C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1215" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -263,6 +263,132 @@
   </si>
   <si>
     <t>TP*,-TPR*</t>
+  </si>
+  <si>
+    <t>EPumpStorage</t>
+  </si>
+  <si>
+    <t>EBiomass</t>
+  </si>
+  <si>
+    <t>EHydro</t>
+  </si>
+  <si>
+    <t>EImports</t>
+  </si>
+  <si>
+    <t>EPV_Grid</t>
+  </si>
+  <si>
+    <t>EPV_RfTpIND</t>
+  </si>
+  <si>
+    <t>ECSP</t>
+  </si>
+  <si>
+    <t>EWind</t>
+  </si>
+  <si>
+    <t>EBattery-Commerce</t>
+  </si>
+  <si>
+    <t>EBattery-Utility</t>
+  </si>
+  <si>
+    <t>EGas</t>
+  </si>
+  <si>
+    <t>ENuclear</t>
+  </si>
+  <si>
+    <t>EOil</t>
+  </si>
+  <si>
+    <t>Etrans</t>
+  </si>
+  <si>
+    <t>Edist_Residential</t>
+  </si>
+  <si>
+    <t>Edist_Agriculture</t>
+  </si>
+  <si>
+    <t>Edist_Industry</t>
+  </si>
+  <si>
+    <t>Edist_Commercial</t>
+  </si>
+  <si>
+    <t>Edist_Transport</t>
+  </si>
+  <si>
+    <t>EPTSTO*</t>
+  </si>
+  <si>
+    <t>ERB*</t>
+  </si>
+  <si>
+    <t>ERHYD*,-ERHYD*-I</t>
+  </si>
+  <si>
+    <t>ERHYD*-I</t>
+  </si>
+  <si>
+    <t>ERSOLPC*</t>
+  </si>
+  <si>
+    <t>ERSOLT*</t>
+  </si>
+  <si>
+    <t>ERWND*</t>
+  </si>
+  <si>
+    <t>ESTSU*</t>
+  </si>
+  <si>
+    <t>ECoal</t>
+  </si>
+  <si>
+    <t>ETC*</t>
+  </si>
+  <si>
+    <t>ETG*</t>
+  </si>
+  <si>
+    <t>ETN*</t>
+  </si>
+  <si>
+    <t>ETO*</t>
+  </si>
+  <si>
+    <t>ETRANS*</t>
+  </si>
+  <si>
+    <t>XRESELC</t>
+  </si>
+  <si>
+    <t>XAGRELC</t>
+  </si>
+  <si>
+    <t>XCOMELC</t>
+  </si>
+  <si>
+    <t>XI*ELC,XU*ELC</t>
+  </si>
+  <si>
+    <t>XTRAELC</t>
+  </si>
+  <si>
+    <t>EPV_RfT</t>
+  </si>
+  <si>
+    <t>ESTSC*,ESTSI*,ESTSR*</t>
+  </si>
+  <si>
+    <t>EBattery-Dist</t>
+  </si>
+  <si>
+    <t>ERSOLPI*,ERSOLPRC*,ERSOLPRR*</t>
   </si>
 </sst>
 </file>
@@ -614,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +752,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.140625" bestFit="1" customWidth="1"/>
@@ -853,6 +979,226 @@
         <v>74</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -862,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1409,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B8E3C-3924-461B-BFC2-2E00211F07C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CB828-7AB7-45BF-BC74-9ADC9C6950DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -280,21 +280,12 @@
     <t>EPV_Grid</t>
   </si>
   <si>
-    <t>EPV_RfTpIND</t>
-  </si>
-  <si>
     <t>ECSP</t>
   </si>
   <si>
     <t>EWind</t>
   </si>
   <si>
-    <t>EBattery-Commerce</t>
-  </si>
-  <si>
-    <t>EBattery-Utility</t>
-  </si>
-  <si>
     <t>EGas</t>
   </si>
   <si>
@@ -379,16 +370,19 @@
     <t>XTRAELC</t>
   </si>
   <si>
-    <t>EPV_RfT</t>
-  </si>
-  <si>
     <t>ESTSC*,ESTSI*,ESTSR*</t>
   </si>
   <si>
-    <t>EBattery-Dist</t>
-  </si>
-  <si>
-    <t>ERSOLPI*,ERSOLPRC*,ERSOLPRR*</t>
+    <t>EPV_RfTp</t>
+  </si>
+  <si>
+    <t>ERSOLPRI*,ERSOLPRC*,ERSOLPRR*</t>
+  </si>
+  <si>
+    <t>Ebattery_Dist</t>
+  </si>
+  <si>
+    <t>Ebattery_Utility</t>
   </si>
 </sst>
 </file>
@@ -743,7 +737,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +981,7 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,7 +1003,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1020,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1031,172 +1025,172 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55C8FA-6651-480D-B996-6B4526801DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF14D3-40F7-4CBE-A705-BD7A8D108AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Edist_All</t>
+  </si>
+  <si>
+    <t>XRESELC,XAGRELC,XI*ELC,XU*ELC,XCOMELC,XTRAELC</t>
+  </si>
+  <si>
+    <t>*ELC*,-INDELC</t>
   </si>
 </sst>
 </file>
@@ -842,11 +851,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16:Q62"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1167,23 @@
         <v>104</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>32</v>
@@ -1393,8 +1419,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF14D3-40F7-4CBE-A705-BD7A8D108AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911948B0-6AF7-4772-AF3D-34A142795C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-1725" yWindow="-20040" windowWidth="30855" windowHeight="15240" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>*ELC*,-INDELC</t>
+  </si>
+  <si>
+    <t>EnergyIndustries</t>
+  </si>
+  <si>
+    <t>UCTL*,UGTL*,UREF*,</t>
+  </si>
+  <si>
+    <t>UAL</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14:M16"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1190,20 @@
         <v>150</v>
       </c>
       <c r="M16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911948B0-6AF7-4772-AF3D-34A142795C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7704067-6A14-4FA3-B74D-D6C19CFC3CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="-20040" windowWidth="30855" windowHeight="15240" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-1725" yWindow="-20040" windowWidth="29055" windowHeight="15240" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Extraction</t>
   </si>
   <si>
-    <t>MIN*</t>
-  </si>
-  <si>
     <t>EPumpStorage</t>
   </si>
   <si>
@@ -289,21 +286,12 @@
     <t>T*</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>ELCC</t>
   </si>
   <si>
-    <t>Elec_Trans</t>
-  </si>
-  <si>
     <t>Elec_Gen</t>
   </si>
   <si>
-    <t>???ELC,-INDELC</t>
-  </si>
-  <si>
     <t>R*</t>
   </si>
   <si>
@@ -500,6 +488,21 @@
   </si>
   <si>
     <t>UAL</t>
+  </si>
+  <si>
+    <t>???ELC,-INDELC,ELC</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>REResource</t>
+  </si>
+  <si>
+    <t>MINSOL,MINWND,MINHYD,MINBI*,MINWAS</t>
+  </si>
+  <si>
+    <t>MINC*,MING*,MINO*</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,512 +925,526 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>104</v>
-      </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
         <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" t="s">
         <v>68</v>
-      </c>
-      <c r="F71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H71" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" t="s">
         <v>56</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N85" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1440,10 +1457,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,57 +1508,57 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1560,10 +1577,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1571,10 +1588,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,10 +1599,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,10 +1610,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1604,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,10 +1643,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,10 +1654,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,10 +1665,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,10 +1676,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,10 +1687,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,21 +1698,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1876585-3163-4F29-970E-C5CD1D5ED001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE69BB-07B5-4727-91FF-330150557C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="255" windowWidth="28350" windowHeight="15150" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="15600" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId2"/>
+    <sheet name="Archive" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="268">
   <si>
     <t>SetName</t>
   </si>
@@ -772,6 +773,75 @@
   </si>
   <si>
     <t>RH?W*</t>
+  </si>
+  <si>
+    <t>FreightRoad</t>
+  </si>
+  <si>
+    <t>TFH*,TFL*</t>
+  </si>
+  <si>
+    <t>TRAELC</t>
+  </si>
+  <si>
+    <t>TRAODS*,TRAOGS*,TRAOKE*,TRAOLP*,TRAOHF*</t>
+  </si>
+  <si>
+    <t>TRAGAS</t>
+  </si>
+  <si>
+    <t>Tra Elc</t>
+  </si>
+  <si>
+    <t>Tra OilProducts</t>
+  </si>
+  <si>
+    <t>Tra Gas</t>
+  </si>
+  <si>
+    <t>TRAODS*</t>
+  </si>
+  <si>
+    <t>TRAOGS*</t>
+  </si>
+  <si>
+    <t>TRAOKE*</t>
+  </si>
+  <si>
+    <t>TRAOHF*</t>
+  </si>
+  <si>
+    <t>Tra Diesel</t>
+  </si>
+  <si>
+    <t>Tra Gasoline</t>
+  </si>
+  <si>
+    <t>Tra JetFuel</t>
+  </si>
+  <si>
+    <t>Tra HFO</t>
+  </si>
+  <si>
+    <t>FreightRail</t>
+  </si>
+  <si>
+    <t>TFR*</t>
+  </si>
+  <si>
+    <t>PassengerPriv</t>
+  </si>
+  <si>
+    <t>TPPR*</t>
+  </si>
+  <si>
+    <t>PassengerPubRoad</t>
+  </si>
+  <si>
+    <t>TPPU*</t>
+  </si>
+  <si>
+    <t>PassengerPub</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1203,10 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,359 +1775,46 @@
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
-      </c>
-      <c r="M32" t="s">
-        <v>181</v>
-      </c>
-      <c r="N32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
-      </c>
-      <c r="M33" t="s">
-        <v>181</v>
-      </c>
-      <c r="N33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
-      </c>
-      <c r="M34" t="s">
-        <v>181</v>
-      </c>
-      <c r="N34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" t="s">
-        <v>181</v>
-      </c>
-      <c r="N35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" t="s">
-        <v>177</v>
-      </c>
-      <c r="M36" t="s">
-        <v>181</v>
-      </c>
-      <c r="N36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" t="s">
-        <v>178</v>
-      </c>
-      <c r="M37" t="s">
-        <v>181</v>
-      </c>
-      <c r="N37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" t="s">
-        <v>179</v>
-      </c>
-      <c r="M38" t="s">
-        <v>181</v>
-      </c>
-      <c r="N38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" t="s">
-        <v>204</v>
-      </c>
-      <c r="M39" t="s">
-        <v>181</v>
-      </c>
-      <c r="N39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" t="s">
-        <v>218</v>
-      </c>
-      <c r="H40" t="s">
-        <v>206</v>
-      </c>
-      <c r="M40" t="s">
-        <v>181</v>
-      </c>
-      <c r="N40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" t="s">
-        <v>208</v>
-      </c>
-      <c r="M41" t="s">
-        <v>181</v>
-      </c>
-      <c r="N41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" t="s">
-        <v>220</v>
-      </c>
-      <c r="H42" t="s">
-        <v>210</v>
-      </c>
-      <c r="M42" t="s">
-        <v>181</v>
-      </c>
-      <c r="N42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
-      <c r="H43" t="s">
-        <v>212</v>
-      </c>
-      <c r="M43" t="s">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" t="s">
-        <v>222</v>
-      </c>
-      <c r="H44" t="s">
-        <v>214</v>
-      </c>
-      <c r="M44" t="s">
-        <v>181</v>
-      </c>
-      <c r="N44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" t="s">
-        <v>216</v>
-      </c>
-      <c r="M45" t="s">
-        <v>181</v>
-      </c>
-      <c r="N45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" t="s">
-        <v>224</v>
-      </c>
-      <c r="H46" t="s">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s">
-        <v>181</v>
-      </c>
-      <c r="N46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" t="s">
-        <v>225</v>
-      </c>
-      <c r="H47" t="s">
-        <v>234</v>
-      </c>
-      <c r="M47" t="s">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M48" t="s">
-        <v>181</v>
-      </c>
-      <c r="N48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H49" t="s">
-        <v>238</v>
-      </c>
-      <c r="M49" t="s">
-        <v>181</v>
-      </c>
-      <c r="N49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H50" t="s">
-        <v>240</v>
-      </c>
-      <c r="M50" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>241</v>
-      </c>
-      <c r="F51" t="s">
-        <v>229</v>
-      </c>
-      <c r="H51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M51" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" t="s">
-        <v>244</v>
-      </c>
-      <c r="M52" t="s">
-        <v>181</v>
-      </c>
-      <c r="N52" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.25">
@@ -2290,10 +2047,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,8 +2516,508 @@
         <v>145</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+      <c r="H37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643BAEA5-1721-4F51-A9C9-ACB51CB23F1D}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="G2:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" t="s">
+        <v>206</v>
+      </c>
+      <c r="O11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O13" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" t="s">
+        <v>212</v>
+      </c>
+      <c r="O14" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" t="s">
+        <v>232</v>
+      </c>
+      <c r="O17" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" t="s">
+        <v>234</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" t="s">
+        <v>240</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>244</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE69BB-07B5-4727-91FF-330150557C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E27B48-6958-4BBF-9B74-A41DC6861F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="15600" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-3000" yWindow="-16800" windowWidth="28695" windowHeight="15600" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="305">
   <si>
     <t>SetName</t>
   </si>
@@ -142,24 +142,6 @@
     <t>EOil</t>
   </si>
   <si>
-    <t>Etrans</t>
-  </si>
-  <si>
-    <t>Edist_Residential</t>
-  </si>
-  <si>
-    <t>Edist_Agriculture</t>
-  </si>
-  <si>
-    <t>Edist_Industry</t>
-  </si>
-  <si>
-    <t>Edist_Commercial</t>
-  </si>
-  <si>
-    <t>Edist_Transport</t>
-  </si>
-  <si>
     <t>EPTSTO*</t>
   </si>
   <si>
@@ -202,21 +184,6 @@
     <t>ETRANS*</t>
   </si>
   <si>
-    <t>XRESELC</t>
-  </si>
-  <si>
-    <t>XAGRELC</t>
-  </si>
-  <si>
-    <t>XCOMELC</t>
-  </si>
-  <si>
-    <t>XI*ELC,XU*ELC</t>
-  </si>
-  <si>
-    <t>XTRAELC</t>
-  </si>
-  <si>
     <t>ESTSC*,ESTSI*,ESTSR*</t>
   </si>
   <si>
@@ -439,9 +406,6 @@
     <t>Lighting</t>
   </si>
   <si>
-    <t>Non Energy</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -842,6 +806,153 @@
   </si>
   <si>
     <t>PassengerPub</t>
+  </si>
+  <si>
+    <t>R??K*,C?K*</t>
+  </si>
+  <si>
+    <t>R??R*,C?R*</t>
+  </si>
+  <si>
+    <t>R??W*,C?W*</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Public Lights</t>
+  </si>
+  <si>
+    <t>Public Water</t>
+  </si>
+  <si>
+    <t>C?G*</t>
+  </si>
+  <si>
+    <t>C?T*</t>
+  </si>
+  <si>
+    <t>ComNew</t>
+  </si>
+  <si>
+    <t>ComExist</t>
+  </si>
+  <si>
+    <t>CN*</t>
+  </si>
+  <si>
+    <t>CE*</t>
+  </si>
+  <si>
+    <t>Electrolysers</t>
+  </si>
+  <si>
+    <t>FuelCells</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>FerroAlloys</t>
+  </si>
+  <si>
+    <t>Food_Bev_Tob</t>
+  </si>
+  <si>
+    <t>Iron_Steel</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>PNFMetals</t>
+  </si>
+  <si>
+    <t>NMMProducts</t>
+  </si>
+  <si>
+    <t>IndOther</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>Pulp_Paper</t>
+  </si>
+  <si>
+    <t>HET*</t>
+  </si>
+  <si>
+    <t>HCF*</t>
+  </si>
+  <si>
+    <t>IAL*</t>
+  </si>
+  <si>
+    <t>ICP*NH3*</t>
+  </si>
+  <si>
+    <t>ICP*,-ICP*NH3*</t>
+  </si>
+  <si>
+    <t>IFC*,IFA*,IFM*</t>
+  </si>
+  <si>
+    <t>IFB*</t>
+  </si>
+  <si>
+    <t>IIS*,-IISHALKHGNO</t>
+  </si>
+  <si>
+    <t>IMI*</t>
+  </si>
+  <si>
+    <t>INM*</t>
+  </si>
+  <si>
+    <t>IPG*</t>
+  </si>
+  <si>
+    <t>INF*</t>
+  </si>
+  <si>
+    <t>IOT*</t>
+  </si>
+  <si>
+    <t>IPP*</t>
+  </si>
+  <si>
+    <t>ProcessHeat</t>
+  </si>
+  <si>
+    <t>NonEnergy</t>
+  </si>
+  <si>
+    <t>R??L*,C?L*,I??L*</t>
+  </si>
+  <si>
+    <t>C?C*,I??C*</t>
+  </si>
+  <si>
+    <t>R??H*,C?H*,I??H*</t>
+  </si>
+  <si>
+    <t>I??S*,I??K*</t>
+  </si>
+  <si>
+    <t>PumpsFansCompressors</t>
+  </si>
+  <si>
+    <t>I??A*,I??P*,I??F*</t>
+  </si>
+  <si>
+    <t>R??O*,C?O*,I??O*,I??E*</t>
   </si>
 </sst>
 </file>
@@ -1200,13 +1311,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,200 +1376,200 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1469,572 +1580,965 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N30" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="H31" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M32" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" t="s">
+        <v>279</v>
+      </c>
+      <c r="H42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" t="s">
+        <v>292</v>
+      </c>
+      <c r="M43" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" t="s">
+        <v>133</v>
+      </c>
+      <c r="N49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>133</v>
+      </c>
+      <c r="N51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" t="s">
+        <v>133</v>
+      </c>
+      <c r="N53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" t="s">
+        <v>133</v>
+      </c>
+      <c r="N55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M57" t="s">
+        <v>133</v>
+      </c>
+      <c r="N57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" t="s">
+        <v>133</v>
+      </c>
+      <c r="N58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>256</v>
+      </c>
+      <c r="M59" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" t="s">
+        <v>133</v>
+      </c>
+      <c r="N60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" t="s">
+        <v>133</v>
+      </c>
+      <c r="N61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" t="s">
+        <v>304</v>
+      </c>
+      <c r="M62" t="s">
+        <v>133</v>
+      </c>
+      <c r="N62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" t="s">
+        <v>257</v>
+      </c>
+      <c r="M63" t="s">
+        <v>133</v>
+      </c>
+      <c r="N63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" t="s">
+        <v>300</v>
+      </c>
+      <c r="M64" t="s">
+        <v>133</v>
+      </c>
+      <c r="N64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>258</v>
+      </c>
+      <c r="M65" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H66" t="s">
+        <v>299</v>
+      </c>
+      <c r="M66" t="s">
+        <v>133</v>
+      </c>
+      <c r="N66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" t="s">
+        <v>260</v>
+      </c>
+      <c r="H67" t="s">
+        <v>262</v>
+      </c>
+      <c r="M67" t="s">
+        <v>133</v>
+      </c>
+      <c r="N67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
         <v>261</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F68" t="s">
         <v>261</v>
       </c>
-      <c r="H33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+      <c r="H68" t="s">
         <v>263</v>
       </c>
-      <c r="F34" t="s">
-        <v>263</v>
-      </c>
-      <c r="H34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" t="s">
-        <v>267</v>
-      </c>
-      <c r="H35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>133</v>
+      </c>
+      <c r="N68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="H69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="M69" t="s">
+        <v>133</v>
+      </c>
+      <c r="N69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="H73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" t="s">
-        <v>39</v>
-      </c>
-      <c r="H84" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2098,72 +2602,72 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2171,13 +2675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,13 +2689,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2199,13 +2703,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2213,13 +2717,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,13 +2731,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2241,13 +2745,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2269,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2283,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,13 +2801,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2311,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,13 +2829,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2339,13 +2843,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2367,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2381,13 +2885,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,13 +2899,13 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,111 +2913,111 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,13 +3025,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,13 +3039,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,13 +3053,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2563,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2577,13 +3081,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,13 +3095,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2605,13 +3109,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2654,367 +3158,367 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" t="s">
         <v>207</v>
       </c>
-      <c r="H12" t="s">
-        <v>219</v>
-      </c>
       <c r="J12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J14" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O15" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="H18" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
         <v>228</v>
       </c>
-      <c r="J21" t="s">
-        <v>240</v>
-      </c>
       <c r="O21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\Workooks for VEDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E27B48-6958-4BBF-9B74-A41DC6861F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEA677-FE3D-4164-998E-DF5368C51816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3000" yWindow="-16800" windowWidth="28695" windowHeight="15600" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId2"/>
     <sheet name="Archive" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="310">
   <si>
     <t>SetName</t>
   </si>
@@ -421,21 +410,12 @@
     <t>R??K*</t>
   </si>
   <si>
-    <t>R??L*</t>
-  </si>
-  <si>
     <t>R??N*</t>
   </si>
   <si>
-    <t>R??O*</t>
-  </si>
-  <si>
     <t>R??R*</t>
   </si>
   <si>
-    <t>R??H*</t>
-  </si>
-  <si>
     <t>R??W*</t>
   </si>
   <si>
@@ -953,13 +933,73 @@
   </si>
   <si>
     <t>R??O*,C?O*,I??O*,I??E*</t>
+  </si>
+  <si>
+    <t>I??R*</t>
+  </si>
+  <si>
+    <t>IndTransport</t>
+  </si>
+  <si>
+    <r>
+      <t>R??L*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I??L*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R??H*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I??H*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R??O*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I??O*,I??E*</t>
+    </r>
+  </si>
+  <si>
+    <t>Cooling dem</t>
+  </si>
+  <si>
+    <t>Process Heating dem</t>
+  </si>
+  <si>
+    <t>PumpsFansCompressors dem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1009,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -994,8 +1047,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,9 +1069,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1054,7 +1109,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1160,7 +1215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1302,7 +1357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1311,13 +1366,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,13 +1680,13 @@
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s">
         <v>75</v>
@@ -1642,467 +1697,467 @@
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" t="s">
-        <v>147</v>
-      </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
         <v>136</v>
       </c>
-      <c r="F24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" t="s">
-        <v>139</v>
-      </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.25">
@@ -2116,10 +2171,10 @@
         <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
@@ -2133,10 +2188,10 @@
         <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
@@ -2150,10 +2205,10 @@
         <v>36</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
@@ -2167,10 +2222,10 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
@@ -2184,10 +2239,10 @@
         <v>38</v>
       </c>
       <c r="M49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
@@ -2201,10 +2256,10 @@
         <v>50</v>
       </c>
       <c r="M50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
@@ -2218,10 +2273,10 @@
         <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
@@ -2235,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.25">
@@ -2252,10 +2307,10 @@
         <v>48</v>
       </c>
       <c r="M53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.25">
@@ -2269,10 +2324,10 @@
         <v>41</v>
       </c>
       <c r="M54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.25">
@@ -2286,10 +2341,10 @@
         <v>43</v>
       </c>
       <c r="M55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.25">
@@ -2303,10 +2358,10 @@
         <v>44</v>
       </c>
       <c r="M56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.25">
@@ -2320,10 +2375,10 @@
         <v>45</v>
       </c>
       <c r="M57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.25">
@@ -2337,10 +2392,10 @@
         <v>46</v>
       </c>
       <c r="M58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.25">
@@ -2351,10 +2406,10 @@
         <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N59" t="s">
         <v>120</v>
@@ -2368,10 +2423,10 @@
         <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s">
         <v>120</v>
@@ -2379,16 +2434,16 @@
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N61" t="s">
         <v>120</v>
@@ -2402,10 +2457,10 @@
         <v>122</v>
       </c>
       <c r="H62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N62" t="s">
         <v>120</v>
@@ -2419,10 +2474,10 @@
         <v>123</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N63" t="s">
         <v>120</v>
@@ -2436,10 +2491,10 @@
         <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N64" t="s">
         <v>120</v>
@@ -2453,10 +2508,10 @@
         <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N65" t="s">
         <v>120</v>
@@ -2464,16 +2519,16 @@
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H66" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N66" t="s">
         <v>120</v>
@@ -2481,16 +2536,16 @@
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N67" t="s">
         <v>120</v>
@@ -2498,16 +2553,16 @@
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N68" t="s">
         <v>120</v>
@@ -2515,16 +2570,16 @@
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N69" t="s">
         <v>120</v>
@@ -2532,14 +2587,95 @@
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" t="s">
+        <v>300</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F70" t="s">
-        <v>302</v>
-      </c>
-      <c r="H70" t="s">
-        <v>303</v>
-      </c>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2551,10 +2687,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,13 +2993,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2871,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2885,13 +3021,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,13 +3035,13 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,13 +3049,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,10 +3066,10 @@
         <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,13 +3077,13 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,13 +3091,13 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,13 +3105,13 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,13 +3119,13 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,13 +3133,13 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3011,112 +3147,202 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" t="s">
         <v>235</v>
       </c>
-      <c r="D33" t="s">
-        <v>238</v>
-      </c>
       <c r="H33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" t="s">
         <v>236</v>
       </c>
-      <c r="D34" t="s">
-        <v>239</v>
-      </c>
       <c r="H34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" t="s">
         <v>237</v>
       </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
       <c r="H35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3166,359 +3392,359 @@
     </row>
     <row r="3" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" t="s">
         <v>165</v>
-      </c>
-      <c r="O7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" t="s">
         <v>166</v>
       </c>
-      <c r="O8" t="s">
-        <v>169</v>
-      </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7C765-2AFA-4C82-980C-A23B7D37E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B0B48-80E0-4B47-86BE-8451FA379F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="-19785" windowWidth="36795" windowHeight="18975" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="4170" yWindow="-21195" windowWidth="36795" windowHeight="18975" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="546">
   <si>
     <t>SetName</t>
   </si>
@@ -1681,7 +1681,13 @@
     <t>AT*,I??R*,-IPPREC*</t>
   </si>
   <si>
-    <t>FinalEnergy-Exports</t>
+    <t>FinalEnergy</t>
+  </si>
+  <si>
+    <t>IND_ElecGenDist</t>
+  </si>
+  <si>
+    <t>I??ELC</t>
   </si>
 </sst>
 </file>
@@ -2063,13 +2069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2502,13 +2508,16 @@
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>121</v>
+        <v>544</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>544</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
+        <v>545</v>
       </c>
       <c r="M24" t="s">
         <v>120</v>
@@ -2519,13 +2528,13 @@
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s">
         <v>120</v>
@@ -2536,13 +2545,13 @@
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s">
         <v>120</v>
@@ -2553,13 +2562,13 @@
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="M27" t="s">
         <v>120</v>
@@ -2570,13 +2579,13 @@
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s">
         <v>120</v>
@@ -2587,13 +2596,13 @@
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s">
         <v>120</v>
@@ -2604,13 +2613,13 @@
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s">
         <v>120</v>
@@ -2621,13 +2630,13 @@
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s">
         <v>120</v>
@@ -2638,13 +2647,13 @@
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s">
         <v>120</v>
@@ -2655,13 +2664,13 @@
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s">
         <v>120</v>
@@ -2672,13 +2681,13 @@
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s">
         <v>120</v>
@@ -2689,13 +2698,13 @@
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s">
         <v>120</v>
@@ -2706,13 +2715,13 @@
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s">
         <v>120</v>
@@ -2723,13 +2732,13 @@
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s">
         <v>120</v>
@@ -2740,13 +2749,13 @@
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s">
         <v>120</v>
@@ -2757,13 +2766,13 @@
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s">
         <v>120</v>
@@ -2774,13 +2783,13 @@
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s">
         <v>120</v>
@@ -2791,13 +2800,13 @@
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s">
         <v>120</v>
@@ -2808,13 +2817,13 @@
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s">
         <v>120</v>
@@ -2825,13 +2834,13 @@
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s">
         <v>120</v>
@@ -2842,13 +2851,13 @@
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s">
         <v>120</v>
@@ -2859,13 +2868,13 @@
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s">
         <v>120</v>
@@ -2876,13 +2885,13 @@
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s">
         <v>120</v>
@@ -2893,13 +2902,13 @@
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="H47" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="M47" t="s">
         <v>120</v>
@@ -2910,13 +2919,13 @@
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="H48" t="s">
+        <v>300</v>
       </c>
       <c r="M48" t="s">
         <v>120</v>
@@ -2927,13 +2936,13 @@
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s">
         <v>120</v>
@@ -2944,13 +2953,13 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s">
         <v>120</v>
@@ -2961,13 +2970,13 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M51" t="s">
         <v>120</v>
@@ -2978,13 +2987,13 @@
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s">
         <v>120</v>
@@ -2995,13 +3004,13 @@
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s">
-        <v>34</v>
+        <v>320</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="M53" t="s">
         <v>120</v>
@@ -3012,13 +3021,13 @@
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M54" t="s">
         <v>120</v>
@@ -3029,13 +3038,13 @@
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
         <v>120</v>
@@ -3046,13 +3055,13 @@
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
         <v>120</v>
@@ -3063,13 +3072,13 @@
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M57" t="s">
         <v>120</v>
@@ -3080,13 +3089,13 @@
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M58" t="s">
         <v>120</v>
@@ -3097,13 +3106,13 @@
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M59" t="s">
         <v>120</v>
@@ -3114,13 +3123,13 @@
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M60" t="s">
         <v>120</v>
@@ -3131,13 +3140,13 @@
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M61" t="s">
         <v>120</v>
@@ -3148,13 +3157,13 @@
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M62" t="s">
         <v>120</v>
@@ -3165,13 +3174,13 @@
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M63" t="s">
         <v>120</v>
@@ -3182,13 +3191,13 @@
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M64" t="s">
         <v>120</v>
@@ -3199,13 +3208,13 @@
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M65" t="s">
         <v>120</v>
@@ -3216,13 +3225,13 @@
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M66" t="s">
         <v>120</v>
@@ -3233,32 +3242,31 @@
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
-        <v>535</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
-      </c>
-      <c r="H67" t="str">
-        <f>H70&amp;","&amp;H74&amp;","&amp;H75&amp;","&amp;H76&amp;","&amp;H77&amp;","&amp;H80</f>
-        <v>R??K*,C?K*,R??R*,C?R*,R??H*,C?H*,R??W*,C?W*,C?C*,I??C*,-IPPCHE*,-INMC*,-IMP*,-IIS*,I??H*,AH*,I??S*,I??K*,IALPOT,I??EAF*,IPPSTM*,IALPOTINERT,ICPSGAS-E,INMBRISTD,INMCEMK*,INMGLASTD,INMLIMSTD,IPG*,IIS*,IFCEAF*,IFMEAF*,-IISCOV*,-IISHALKHGN,-IISHGN*,-IISHDRI*,-IISMOE*,-IISSALDHGN,-IMISHGN*,-IOTSHGN*,-IFBSHGN*,-ICPSHGN*,-IPPSTMBLQ*</v>
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
       </c>
       <c r="M67" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="N67" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H68" t="str">
-        <f>H79&amp;","&amp;H81&amp;","&amp;H82&amp;","&amp;H7</f>
-        <v>C?T*,AI*,AP*I??A*,I??P*,I??F*,-IALPOT,-IALPOTINERT,-IISPELTS-N,IPPPAP*,I??O*,INMCEMP*,INMCEMFGRP,INMCEMFGBM,AT*,I??R*,-IPPREC*,T*</v>
+        <f>H71&amp;","&amp;H75&amp;","&amp;H76&amp;","&amp;H77&amp;","&amp;H78&amp;","&amp;H81</f>
+        <v>R??K*,C?K*,R??R*,C?R*,R??H*,C?H*,R??W*,C?W*,C?C*,I??C*,-IPPCHE*,-INMC*,-IMP*,-IIS*,I??H*,AH*,I??S*,I??K*,IALPOT,I??EAF*,IPPSTM*,IALPOTINERT,ICPSGAS-E,INMBRISTD,INMCEMK*,INMGLASTD,INMLIMSTD,IPG*,IIS*,IFCEAF*,IFMEAF*,-IISCOV*,-IISHALKHGN,-IISHGN*,-IISHDRI*,-IISMOE*,-IISSALDHGN,-IMISHGN*,-IOTSHGN*,-IFBSHGN*,-ICPSHGN*,-IPPSTMBLQ*</v>
       </c>
       <c r="M68" t="s">
         <v>72</v>
@@ -3269,14 +3277,14 @@
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H69" t="str">
-        <f>H71&amp;","&amp;H72&amp;","&amp;H73&amp;","&amp;H78&amp;","&amp;H82</f>
-        <v>R??L*,C?L*,I??L*,-INM*,,R??N*,ICPGASNH3-E,ICPTGMU*,C?N*,AO*,R??O*,C?O*,I??E*,-IPPSTM*,-IMP*,-IIS*,-IFM*,-IFC*,INMCLI*,IPP*,-IPGM*,-IPPPAP*,-IPPSTM*,-IPPELC*,C?G*,AT*,I??R*,-IPPREC*</v>
+        <f>H80&amp;","&amp;H82&amp;","&amp;H83&amp;","&amp;H7</f>
+        <v>C?T*,AI*,AP*I??A*,I??P*,I??F*,-IALPOT,-IALPOTINERT,-IISPELTS-N,IPPPAP*,I??O*,INMCEMP*,INMCEMFGRP,INMCEMFGBM,AT*,I??R*,-IPPREC*,T*</v>
       </c>
       <c r="M69" t="s">
         <v>72</v>
@@ -3287,16 +3295,17 @@
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>113</v>
+        <v>537</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" t="s">
-        <v>240</v>
+        <v>537</v>
+      </c>
+      <c r="H70" t="str">
+        <f>H72&amp;","&amp;H73&amp;","&amp;H74&amp;","&amp;H79&amp;","&amp;H83</f>
+        <v>R??L*,C?L*,I??L*,-INM*,,R??N*,ICPGASNH3-E,ICPTGMU*,C?N*,AO*,R??O*,C?O*,I??E*,-IPPSTM*,-IMP*,-IIS*,-IFM*,-IFC*,INMCLI*,IPP*,-IPGM*,-IPPPAP*,-IPPSTM*,-IPPELC*,C?G*,AT*,I??R*,-IPPREC*</v>
       </c>
       <c r="M70" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="N70" t="s">
         <v>114</v>
@@ -3304,13 +3313,13 @@
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H71" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="M71" t="s">
         <v>120</v>
@@ -3320,15 +3329,14 @@
       </c>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E72" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>362</v>
+      <c r="E72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" t="s">
+        <v>288</v>
       </c>
       <c r="M72" t="s">
         <v>120</v>
@@ -3339,14 +3347,14 @@
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E73" s="2" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>539</v>
+        <v>362</v>
       </c>
       <c r="M73" t="s">
         <v>120</v>
@@ -3357,14 +3365,14 @@
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E74" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s">
         <v>120</v>
@@ -3375,14 +3383,14 @@
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="M75" t="s">
         <v>120</v>
@@ -3393,14 +3401,14 @@
     </row>
     <row r="76" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="M76" t="s">
         <v>120</v>
@@ -3411,14 +3419,14 @@
     </row>
     <row r="77" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E77" s="2" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="M77" t="s">
         <v>120</v>
@@ -3427,21 +3435,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E78" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
+        <v>293</v>
+      </c>
       <c r="M78" t="s">
         <v>120</v>
       </c>
@@ -3449,17 +3453,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E79" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
       <c r="M79" t="s">
         <v>120</v>
       </c>
@@ -3469,14 +3477,14 @@
     </row>
     <row r="80" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E80" s="2" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>538</v>
+        <v>247</v>
       </c>
       <c r="M80" t="s">
         <v>120</v>
@@ -3487,32 +3495,32 @@
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E81" s="2" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N81" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="M81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N81" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E82" s="2" t="s">
-        <v>541</v>
+        <v>330</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>541</v>
+        <v>330</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>120</v>
@@ -3523,13 +3531,14 @@
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E83" s="2" t="s">
-        <v>325</v>
+        <v>541</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>120</v>
@@ -3540,13 +3549,13 @@
     </row>
     <row r="84" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E84" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>120</v>
@@ -3557,13 +3566,13 @@
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E85" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>120</v>
@@ -3572,32 +3581,32 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E86" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N86" t="s">
-        <v>124</v>
+      <c r="N86" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E87" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>120</v>
@@ -3608,13 +3617,13 @@
     </row>
     <row r="88" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E88" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>120</v>
@@ -3625,13 +3634,13 @@
     </row>
     <row r="89" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E89" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>120</v>
@@ -3642,13 +3651,13 @@
     </row>
     <row r="90" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E90" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>120</v>
@@ -3659,13 +3668,13 @@
     </row>
     <row r="91" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E91" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>120</v>
@@ -3676,13 +3685,13 @@
     </row>
     <row r="92" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E92" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>120</v>
@@ -3693,13 +3702,13 @@
     </row>
     <row r="93" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E93" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>120</v>
@@ -3710,13 +3719,13 @@
     </row>
     <row r="94" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E94" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>120</v>
@@ -3727,13 +3736,13 @@
     </row>
     <row r="95" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E95" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>120</v>
@@ -3744,13 +3753,13 @@
     </row>
     <row r="96" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E96" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>120</v>
@@ -3761,13 +3770,13 @@
     </row>
     <row r="97" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E97" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>120</v>
@@ -3778,13 +3787,13 @@
     </row>
     <row r="98" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E98" s="2" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>120</v>
@@ -3795,13 +3804,13 @@
     </row>
     <row r="99" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E99" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>120</v>
@@ -3812,30 +3821,30 @@
     </row>
     <row r="100" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E101" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E101" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>120</v>
@@ -3846,13 +3855,13 @@
     </row>
     <row r="102" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E102" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>120</v>
@@ -3863,13 +3872,13 @@
     </row>
     <row r="103" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E103" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>120</v>
@@ -3880,13 +3889,13 @@
     </row>
     <row r="104" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E104" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>120</v>
@@ -3897,13 +3906,13 @@
     </row>
     <row r="105" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E105" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>120</v>
@@ -3914,13 +3923,13 @@
     </row>
     <row r="106" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E106" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>120</v>
@@ -3931,13 +3940,13 @@
     </row>
     <row r="107" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E107" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>120</v>
@@ -3948,13 +3957,13 @@
     </row>
     <row r="108" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E108" s="2" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>120</v>
@@ -3965,13 +3974,13 @@
     </row>
     <row r="109" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E109" s="2" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H109" t="s">
-        <v>353</v>
+        <v>417</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>120</v>
@@ -3982,15 +3991,15 @@
     </row>
     <row r="110" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E110" s="2" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="H110" t="s">
-        <v>423</v>
-      </c>
-      <c r="M110" t="s">
+        <v>353</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N110" t="s">
@@ -3999,13 +4008,13 @@
     </row>
     <row r="111" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E111" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H111" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M111" t="s">
         <v>120</v>
@@ -4016,13 +4025,13 @@
     </row>
     <row r="112" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E112" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H112" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="M112" t="s">
         <v>120</v>
@@ -4033,14 +4042,13 @@
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E113" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G113" s="2"/>
+        <v>428</v>
+      </c>
       <c r="H113" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M113" t="s">
         <v>120</v>
@@ -4051,14 +4059,14 @@
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E114" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="M114" t="s">
         <v>120</v>
@@ -4069,13 +4077,14 @@
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E115" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="G115" s="2"/>
       <c r="H115" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="M115" t="s">
         <v>120</v>
@@ -4086,13 +4095,13 @@
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E116" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H116" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="M116" t="s">
         <v>120</v>
@@ -4103,13 +4112,13 @@
     </row>
     <row r="117" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E117" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H117" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="M117" t="s">
         <v>120</v>
@@ -4120,13 +4129,13 @@
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E118" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H118" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M118" t="s">
         <v>120</v>
@@ -4137,14 +4146,13 @@
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E119" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>436</v>
+      </c>
       <c r="H119" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M119" t="s">
         <v>120</v>
@@ -4155,13 +4163,14 @@
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E120" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>442</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="G120" s="2"/>
       <c r="H120" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M120" t="s">
         <v>120</v>
@@ -4172,14 +4181,13 @@
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E121" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>442</v>
+      </c>
       <c r="H121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M121" t="s">
         <v>120</v>
@@ -4190,13 +4198,14 @@
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E122" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>446</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G122" s="2"/>
       <c r="H122" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M122" t="s">
         <v>120</v>
@@ -4207,13 +4216,13 @@
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E123" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H123" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="M123" t="s">
         <v>120</v>
@@ -4224,13 +4233,13 @@
     </row>
     <row r="124" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E124" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H124" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="M124" t="s">
         <v>120</v>
@@ -4241,13 +4250,13 @@
     </row>
     <row r="125" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E125" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H125" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M125" t="s">
         <v>120</v>
@@ -4258,13 +4267,13 @@
     </row>
     <row r="126" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E126" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H126" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M126" t="s">
         <v>120</v>
@@ -4275,13 +4284,13 @@
     </row>
     <row r="127" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E127" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="H127" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="M127" t="s">
         <v>120</v>
@@ -4292,13 +4301,13 @@
     </row>
     <row r="128" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E128" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H128" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M128" t="s">
         <v>120</v>
@@ -4309,13 +4318,13 @@
     </row>
     <row r="129" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E129" s="2" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="H129" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M129" t="s">
         <v>120</v>
@@ -4326,13 +4335,13 @@
     </row>
     <row r="130" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E130" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H130" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M130" t="s">
         <v>120</v>
@@ -4343,13 +4352,13 @@
     </row>
     <row r="131" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E131" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H131" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M131" t="s">
         <v>120</v>
@@ -4360,13 +4369,13 @@
     </row>
     <row r="132" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E132" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H132" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M132" t="s">
         <v>120</v>
@@ -4377,13 +4386,13 @@
     </row>
     <row r="133" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E133" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H133" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M133" t="s">
         <v>120</v>
@@ -4394,13 +4403,13 @@
     </row>
     <row r="134" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E134" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H134" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M134" t="s">
         <v>120</v>
@@ -4411,13 +4420,13 @@
     </row>
     <row r="135" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E135" s="2" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="H135" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="M135" t="s">
         <v>120</v>
@@ -4428,13 +4437,13 @@
     </row>
     <row r="136" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E136" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H136" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M136" t="s">
         <v>120</v>
@@ -4445,56 +4454,73 @@
     </row>
     <row r="137" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E137" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H137" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="M137" t="s">
+        <v>120</v>
+      </c>
+      <c r="N137" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E138" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H138" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E139" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
+      </c>
+      <c r="H139" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="140" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E140" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E141" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E142" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H142" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4510,8 +4536,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4646,8 +4672,8 @@
         <v>10</v>
       </c>
       <c r="B9" t="str">
-        <f>B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B15&amp;","&amp;B19&amp;",COA"</f>
-        <v>AGR*,COM*,RES*,TRA*,IND*,I??BI*,I??ELC,COK,*ODS*,*OGS*,*OKE*,*OLP*,*OHF*,COA</v>
+        <f>B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B15</f>
+        <v>AGR*,COM*,RES*,TRA*,IND*,I??BI*,I??ELC,COK</v>
       </c>
       <c r="D9" t="s">
         <v>543</v>

--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B0B48-80E0-4B47-86BE-8451FA379F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80A283-4DFC-4D61-861B-628F6C5FCC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="-21195" windowWidth="36795" windowHeight="18975" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="1550" yWindow="750" windowWidth="27230" windowHeight="15780" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
@@ -37,8 +37,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7F5D52BE-F1CC-4E36-BEDE-3667B2F0AC55}</author>
+  </authors>
+  <commentList>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{7F5D52BE-F1CC-4E36-BEDE-3667B2F0AC55}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IPPSTMELC* does not produce high pressure steam used by CHPs</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E0138684-7423-4D42-8B93-4AFFD9F302CA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{E0138684-7423-4D42-8B93-4AFFD9F302CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure what to do with Iron and Steel, and Ferrochrome here</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="664">
   <si>
     <t>SetName</t>
   </si>
@@ -304,9 +340,6 @@
     <t>CrudeOil</t>
   </si>
   <si>
-    <t>*BI*</t>
-  </si>
-  <si>
     <t>Biomass</t>
   </si>
   <si>
@@ -886,9 +919,6 @@
     <t>NonEnergy</t>
   </si>
   <si>
-    <t>I??S*,I??K*</t>
-  </si>
-  <si>
     <t>Cooling dem</t>
   </si>
   <si>
@@ -934,75 +964,18 @@
     <t>U*,IIS*,IISHALKHGN,IISHGNSTOR-N</t>
   </si>
   <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>Cogeneration</t>
-  </si>
-  <si>
     <t>IPPELCSTM*</t>
   </si>
   <si>
-    <t>IPP Coal</t>
-  </si>
-  <si>
-    <t>IPP OilProducts</t>
-  </si>
-  <si>
-    <t>IPP Gas</t>
-  </si>
-  <si>
-    <t>IPP Biomass</t>
-  </si>
-  <si>
-    <t>IPP Elc</t>
-  </si>
-  <si>
-    <t>IPPCOA,INDCOA</t>
-  </si>
-  <si>
-    <t>IPPODS*,INDODS*,IPPOGS*,INDOGS*,IPPOKE*,INDOKE*,IPPOLP*,INDOLP*,IPPOHF*,INDOHF*</t>
-  </si>
-  <si>
-    <t>IPPGAS,INDGAS</t>
-  </si>
-  <si>
-    <t>Pulp_Paper_ProcessHeat</t>
-  </si>
-  <si>
-    <t>IPPSTM*,-IPPSTMBLQ*</t>
-  </si>
-  <si>
-    <t>IPPB*,INDBI*,-IPPBIP</t>
-  </si>
-  <si>
-    <t>IPP Cogeneration</t>
-  </si>
-  <si>
     <t>IPPCHP</t>
   </si>
   <si>
     <t>IPPSTM</t>
   </si>
   <si>
-    <t>IPP Steam</t>
-  </si>
-  <si>
-    <t>IPPELC,INDELC,ELC,ELCC</t>
-  </si>
-  <si>
-    <t>Pulp_Paper_MechPulp</t>
-  </si>
-  <si>
     <t>Pulp_Paper_ChemPulp</t>
   </si>
   <si>
-    <t>Pulp_Paper_DisPulp</t>
-  </si>
-  <si>
-    <t>Pulp_Paper_RecPulp</t>
-  </si>
-  <si>
     <t>IPPMCH*</t>
   </si>
   <si>
@@ -1042,48 +1015,12 @@
     <t>Iron_Steel_DRI-EAF</t>
   </si>
   <si>
-    <t>NMMProducts_Glass</t>
-  </si>
-  <si>
-    <t>NMMProducts_Bricks</t>
-  </si>
-  <si>
-    <t>NMMProducts_Lime</t>
-  </si>
-  <si>
-    <t>INMGLASTD,INMGLAADV</t>
-  </si>
-  <si>
-    <t>INMBRIADV,INMBRISTD</t>
-  </si>
-  <si>
     <t>INMLIMSTD</t>
   </si>
   <si>
-    <t>NMMProducts_Cement_FueltoThermal</t>
-  </si>
-  <si>
     <t>INMCEMF2TF</t>
   </si>
   <si>
-    <t>NMMProducts_Cement_FinishGrinding</t>
-  </si>
-  <si>
-    <t>NMMProducts_Cement_Pregrinding</t>
-  </si>
-  <si>
-    <t>NMMProducts_Cement_Kilns</t>
-  </si>
-  <si>
-    <t>INMCEMFGBM,INMCEMFGRP</t>
-  </si>
-  <si>
-    <t>INMCEMK*</t>
-  </si>
-  <si>
-    <t>INMCLISUB*</t>
-  </si>
-  <si>
     <t>IISBFBOF*</t>
   </si>
   <si>
@@ -1135,9 +1072,6 @@
     <t>Iron_Steel_Pelletizer</t>
   </si>
   <si>
-    <t>Iron_Steel_Coke_Ovens&amp;Imports</t>
-  </si>
-  <si>
     <t>Iron_Steel_Scrap</t>
   </si>
   <si>
@@ -1147,9 +1081,6 @@
     <t>Iron_Steel_SteelImports</t>
   </si>
   <si>
-    <t>Iron_Steel_Electrolyser&amp;H2Storage</t>
-  </si>
-  <si>
     <t>Iron_Steel_H2DRI</t>
   </si>
   <si>
@@ -1165,18 +1096,12 @@
     <t>Iron_Steel_SecondaryEAF</t>
   </si>
   <si>
-    <t>Iron_Steel_MoltenOxideElectrolysis</t>
-  </si>
-  <si>
     <t>IISEAF*</t>
   </si>
   <si>
     <t>IISMOE*</t>
   </si>
   <si>
-    <t>IISHHGNSTOR*,IISHALKHGN</t>
-  </si>
-  <si>
     <t>IISHDRI*</t>
   </si>
   <si>
@@ -1192,45 +1117,24 @@
     <t>IMPCRS</t>
   </si>
   <si>
-    <t>Iron_Steel_CrudeSteel</t>
-  </si>
-  <si>
     <t>IISCRS</t>
   </si>
   <si>
     <t>IISFEORE</t>
   </si>
   <si>
-    <t>Iron_Steel_Ore</t>
-  </si>
-  <si>
     <t>IISSCRP</t>
   </si>
   <si>
-    <t>Iron_Steel_ScrapSteel</t>
-  </si>
-  <si>
-    <t>Iron_Steel_Pellets</t>
-  </si>
-  <si>
     <t>IISSPLTS</t>
   </si>
   <si>
-    <t>Iron_Steel_Coke</t>
-  </si>
-  <si>
     <t>IISDRIEAF*</t>
   </si>
   <si>
     <t>MINFEORE</t>
   </si>
   <si>
-    <t>IISCOV*,IMPCOK</t>
-  </si>
-  <si>
-    <t>Iron_Steel_Imports</t>
-  </si>
-  <si>
     <t>Iron_Steel_MOE</t>
   </si>
   <si>
@@ -1240,9 +1144,6 @@
     <t>*HGN*,IISHDRI</t>
   </si>
   <si>
-    <t>Iron_Steel_DirectReducedIron</t>
-  </si>
-  <si>
     <t>IISDRI</t>
   </si>
   <si>
@@ -1273,27 +1174,18 @@
     <t>INDCOA</t>
   </si>
   <si>
-    <t>*COK*,IISCKE</t>
-  </si>
-  <si>
     <t>INMCLISUB</t>
   </si>
   <si>
     <t>Clinker substitution</t>
   </si>
   <si>
-    <t>INMCEMPGBM,INMCEMPGRP</t>
-  </si>
-  <si>
     <t>Cement thermal fuel</t>
   </si>
   <si>
     <t>INMCEMTHF</t>
   </si>
   <si>
-    <t>NMMProducts_Cement_ClinkerSubstitution</t>
-  </si>
-  <si>
     <t>NMM Raw Materials</t>
   </si>
   <si>
@@ -1327,9 +1219,6 @@
     <t>CarbonCapture&amp;Storage</t>
   </si>
   <si>
-    <t>GasRefineries</t>
-  </si>
-  <si>
     <t>PowerSectorCCS</t>
   </si>
   <si>
@@ -1396,21 +1285,12 @@
     <t>HeatSteam</t>
   </si>
   <si>
-    <t>CoalFuelSupply</t>
-  </si>
-  <si>
-    <t>GasFuelSupply</t>
-  </si>
-  <si>
     <t>GasCoastalSupply</t>
   </si>
   <si>
     <t>GasIndegenousShale</t>
   </si>
   <si>
-    <t>GasMethaneRich</t>
-  </si>
-  <si>
     <t>GasRegionalLNG</t>
   </si>
   <si>
@@ -1432,9 +1312,6 @@
     <t>UGASGR*</t>
   </si>
   <si>
-    <t>GIM</t>
-  </si>
-  <si>
     <t>IMPGWL</t>
   </si>
   <si>
@@ -1450,21 +1327,9 @@
     <t>XUPSGIC</t>
   </si>
   <si>
-    <t>GasUpstreamSA</t>
-  </si>
-  <si>
-    <t>XUPSGAS</t>
-  </si>
-  <si>
-    <t>GasUpstream</t>
-  </si>
-  <si>
     <t>GasInternationalImportsLNG</t>
   </si>
   <si>
-    <t>UPSGAS,UPSGIC</t>
-  </si>
-  <si>
     <t>OIlAviationGasoline</t>
   </si>
   <si>
@@ -1492,9 +1357,6 @@
     <t>*OGS*</t>
   </si>
   <si>
-    <t>*OKE*</t>
-  </si>
-  <si>
     <t>*OLP*</t>
   </si>
   <si>
@@ -1510,43 +1372,13 @@
     <t>UTRNGIMGAS,ULGTGLFSRU-N,ULGTGRL-N</t>
   </si>
   <si>
-    <t>XUPSCLE</t>
-  </si>
-  <si>
     <t>MINGIC</t>
   </si>
   <si>
-    <t>GasCoastal</t>
-  </si>
-  <si>
-    <t>GasSA</t>
-  </si>
-  <si>
-    <t>GasRegional</t>
-  </si>
-  <si>
-    <t>CrudeOilSupply</t>
-  </si>
-  <si>
-    <t>XUPSOCR</t>
-  </si>
-  <si>
-    <t>XUPSGAS,XTRAGAS,XRESGAS,XPWRGAS,XINDGAS,XCOMGAS</t>
-  </si>
-  <si>
     <t>GasCoastalPipeline</t>
   </si>
   <si>
     <t>UGASGIC*</t>
-  </si>
-  <si>
-    <t>*GRL*</t>
-  </si>
-  <si>
-    <t>*GAS*,-UPSGAS</t>
-  </si>
-  <si>
-    <t>*GIC*,-UPSGIC</t>
   </si>
   <si>
     <t>UPSHEE,UPSHEN</t>
@@ -1688,6 +1520,564 @@
   </si>
   <si>
     <t>I??ELC</t>
+  </si>
+  <si>
+    <t>IPPELC</t>
+  </si>
+  <si>
+    <t>ICPELC</t>
+  </si>
+  <si>
+    <t>IFAELC</t>
+  </si>
+  <si>
+    <t>IFBELC</t>
+  </si>
+  <si>
+    <t>IISELC</t>
+  </si>
+  <si>
+    <t>IMIELC</t>
+  </si>
+  <si>
+    <t>INFELC</t>
+  </si>
+  <si>
+    <t>INMELC</t>
+  </si>
+  <si>
+    <t>IOTELC</t>
+  </si>
+  <si>
+    <t>GasTerminals</t>
+  </si>
+  <si>
+    <t>ElectricitySupply</t>
+  </si>
+  <si>
+    <t>UPSELC</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>*GIM*,*GAS*,*GIH*,GIC*,*GIB*,*GRL*,*GRM*,*GRN*,*GRS*</t>
+  </si>
+  <si>
+    <t>IPPPAP*</t>
+  </si>
+  <si>
+    <t>IPPBLQ</t>
+  </si>
+  <si>
+    <t>*BI*,-IPPBIP</t>
+  </si>
+  <si>
+    <t>HP Steam</t>
+  </si>
+  <si>
+    <t>LP Steam</t>
+  </si>
+  <si>
+    <t>Black liquor</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>IPPPULP*</t>
+  </si>
+  <si>
+    <t>PEXIPP</t>
+  </si>
+  <si>
+    <t>Pulp_ExportMarket</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_Boilers</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_BPTurbine</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_ElecDist</t>
+  </si>
+  <si>
+    <t>XIPPELC</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_DissolvPulp</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_RecovPulp</t>
+  </si>
+  <si>
+    <t>IPPSTM*,-IPPSTMELC*</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_ElectroBoilers</t>
+  </si>
+  <si>
+    <t>IPPSTMELC*</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_MechaPulp</t>
+  </si>
+  <si>
+    <t>Pulp_Paper_Mills</t>
+  </si>
+  <si>
+    <t>IPPREC</t>
+  </si>
+  <si>
+    <t>IPPPAP</t>
+  </si>
+  <si>
+    <t>Recycled Paper</t>
+  </si>
+  <si>
+    <t>Cogen</t>
+  </si>
+  <si>
+    <t>I??S*,I??K*,IPPSTM,INMCEMTHF,IISCKE,IISELC,IISHGN</t>
+  </si>
+  <si>
+    <t>Cement_FueltoThermal</t>
+  </si>
+  <si>
+    <t>Iron_Steel_CokeOvens</t>
+  </si>
+  <si>
+    <t>Iron_Steel_CokeImports</t>
+  </si>
+  <si>
+    <t>IISCOV*</t>
+  </si>
+  <si>
+    <t>IMPCOK</t>
+  </si>
+  <si>
+    <t>Iron_Steel_H2Electrolyser</t>
+  </si>
+  <si>
+    <t>Iron_Steel_H2Storage</t>
+  </si>
+  <si>
+    <t>IISHHGNSTOR*</t>
+  </si>
+  <si>
+    <t>IISHALKHGN</t>
+  </si>
+  <si>
+    <t>CrudeSteel</t>
+  </si>
+  <si>
+    <t>ScrapSteel</t>
+  </si>
+  <si>
+    <t>DirectReducedIron</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Pellets</t>
+  </si>
+  <si>
+    <t>BFSlag</t>
+  </si>
+  <si>
+    <t>IISBFSLG</t>
+  </si>
+  <si>
+    <t>*COK*</t>
+  </si>
+  <si>
+    <t>*CKE*</t>
+  </si>
+  <si>
+    <t>CokingCoal</t>
+  </si>
+  <si>
+    <t>Iron_Steel_Coke</t>
+  </si>
+  <si>
+    <t>Ferrochrome_EAF</t>
+  </si>
+  <si>
+    <t>Ferromanganese_EAF</t>
+  </si>
+  <si>
+    <t>Ferroalloys_CokeOvens</t>
+  </si>
+  <si>
+    <t>IFCEAF*</t>
+  </si>
+  <si>
+    <t>IFMEAF*</t>
+  </si>
+  <si>
+    <t>Ferroalloys_Coke</t>
+  </si>
+  <si>
+    <t>Lime_StandardKiln</t>
+  </si>
+  <si>
+    <t>INMBRISTD</t>
+  </si>
+  <si>
+    <t>INMBRIADV</t>
+  </si>
+  <si>
+    <t>INMGLAADV</t>
+  </si>
+  <si>
+    <t>INMGLASTD</t>
+  </si>
+  <si>
+    <t>Bricks_StandardKiln</t>
+  </si>
+  <si>
+    <t>Bricks_AdvancedKiln</t>
+  </si>
+  <si>
+    <t>Glass_AdvancedKiln</t>
+  </si>
+  <si>
+    <t>Glass_StandardKiln</t>
+  </si>
+  <si>
+    <t>Bricks_Ceramics</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>INMGLA</t>
+  </si>
+  <si>
+    <t>INMLIM</t>
+  </si>
+  <si>
+    <t>INMBRI</t>
+  </si>
+  <si>
+    <t>IFACR</t>
+  </si>
+  <si>
+    <t>IFAMN</t>
+  </si>
+  <si>
+    <t>Cement_KilnLongDry</t>
+  </si>
+  <si>
+    <t>Cement_KilnNSPPrecalciner</t>
+  </si>
+  <si>
+    <t>Cement_KilnSuspPreheater</t>
+  </si>
+  <si>
+    <t>INMCEMKLD*</t>
+  </si>
+  <si>
+    <t>INMCEMKPP*</t>
+  </si>
+  <si>
+    <t>INMCEMKSP*</t>
+  </si>
+  <si>
+    <t>Cement_FinishGrinding_RotaryPress</t>
+  </si>
+  <si>
+    <t>Cement_FinishGrinding_BallMill</t>
+  </si>
+  <si>
+    <t>Cement_Pregrinding_BallMill</t>
+  </si>
+  <si>
+    <t>Cement_Pregrinding_RotaryPress</t>
+  </si>
+  <si>
+    <t>INMCEMFGRP</t>
+  </si>
+  <si>
+    <t>INMCEMFGBM</t>
+  </si>
+  <si>
+    <t>INMCEMPGRP</t>
+  </si>
+  <si>
+    <t>INMCEMPGBM</t>
+  </si>
+  <si>
+    <t>INMCLI</t>
+  </si>
+  <si>
+    <t>Clinker</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>INMCEM</t>
+  </si>
+  <si>
+    <t>Cement_CliSub_CPFAsh</t>
+  </si>
+  <si>
+    <t>INMCLISUBASH</t>
+  </si>
+  <si>
+    <t>INMCLISUBCLY</t>
+  </si>
+  <si>
+    <t>INMCLISUBGYL</t>
+  </si>
+  <si>
+    <t>INMCLISUBSLAG</t>
+  </si>
+  <si>
+    <t>INMCLISUBSPOZ</t>
+  </si>
+  <si>
+    <t>Cement_CliSub_Clay</t>
+  </si>
+  <si>
+    <t>Cement_CliSub_Gypsum</t>
+  </si>
+  <si>
+    <t>Cement_CliSub_BFSlag</t>
+  </si>
+  <si>
+    <t>Cement_CliSub_Lime</t>
+  </si>
+  <si>
+    <t>Agr Heating dem</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Agr Other dem</t>
+  </si>
+  <si>
+    <t>Agr Processing dem</t>
+  </si>
+  <si>
+    <t>Agr Traction dem</t>
+  </si>
+  <si>
+    <t>Agr Irrigation dem</t>
+  </si>
+  <si>
+    <t>Agriculture_Heating</t>
+  </si>
+  <si>
+    <t>Agriculture_Irrigation</t>
+  </si>
+  <si>
+    <t>Agriculture_Other</t>
+  </si>
+  <si>
+    <t>Agriculture_Processing</t>
+  </si>
+  <si>
+    <t>Agriculture_Traction</t>
+  </si>
+  <si>
+    <t>*OHF*</t>
+  </si>
+  <si>
+    <t>OilHFO</t>
+  </si>
+  <si>
+    <t>AH*</t>
+  </si>
+  <si>
+    <t>AI*</t>
+  </si>
+  <si>
+    <t>AO*</t>
+  </si>
+  <si>
+    <t>AP*</t>
+  </si>
+  <si>
+    <t>AT*</t>
+  </si>
+  <si>
+    <t>XUPSHEN,XUPSHEE</t>
+  </si>
+  <si>
+    <t>UpstreamHeatSteam</t>
+  </si>
+  <si>
+    <t>*OKE*,*OKG*</t>
+  </si>
+  <si>
+    <t>HCVElectric</t>
+  </si>
+  <si>
+    <t>HCVGas</t>
+  </si>
+  <si>
+    <t>HCVOil</t>
+  </si>
+  <si>
+    <t>HCVHydrogen</t>
+  </si>
+  <si>
+    <t>LCVElectric</t>
+  </si>
+  <si>
+    <t>LCVGas</t>
+  </si>
+  <si>
+    <t>LCVOil</t>
+  </si>
+  <si>
+    <t>LCVHybrid</t>
+  </si>
+  <si>
+    <t>FreightPip</t>
+  </si>
+  <si>
+    <t>CarElectric</t>
+  </si>
+  <si>
+    <t>CarGas</t>
+  </si>
+  <si>
+    <t>CarHydrogen</t>
+  </si>
+  <si>
+    <t>CarOil</t>
+  </si>
+  <si>
+    <t>CarHybrid</t>
+  </si>
+  <si>
+    <t>MotoElectric</t>
+  </si>
+  <si>
+    <t>MotoOil</t>
+  </si>
+  <si>
+    <t>SUVElectric</t>
+  </si>
+  <si>
+    <t>SUVGas</t>
+  </si>
+  <si>
+    <t>SUVHydrogen</t>
+  </si>
+  <si>
+    <t>SUVOil</t>
+  </si>
+  <si>
+    <t>SUVHybrid</t>
+  </si>
+  <si>
+    <t>BRTElc</t>
+  </si>
+  <si>
+    <t>BRTGas</t>
+  </si>
+  <si>
+    <t>BRTHydrogen</t>
+  </si>
+  <si>
+    <t>BRTOil</t>
+  </si>
+  <si>
+    <t>BusElectric</t>
+  </si>
+  <si>
+    <t>BusGas</t>
+  </si>
+  <si>
+    <t>BusHydrogen</t>
+  </si>
+  <si>
+    <t>BusOil</t>
+  </si>
+  <si>
+    <t>PassengerRail</t>
+  </si>
+  <si>
+    <t>MinibusElectric</t>
+  </si>
+  <si>
+    <t>MinibusGas</t>
+  </si>
+  <si>
+    <t>MinibusHydrogen</t>
+  </si>
+  <si>
+    <t>MinibusOil</t>
+  </si>
+  <si>
+    <t>MinibusHybrid</t>
+  </si>
+  <si>
+    <t>TraOther</t>
+  </si>
+  <si>
+    <t>TRAO??</t>
+  </si>
+  <si>
+    <t>T*MBT*</t>
+  </si>
+  <si>
+    <t>TPPUGAT,TPPUMER</t>
+  </si>
+  <si>
+    <t>TFPIP</t>
+  </si>
+  <si>
+    <t>TS*</t>
+  </si>
+  <si>
+    <t>TRAHGN</t>
+  </si>
+  <si>
+    <t>*hybrid*</t>
+  </si>
+  <si>
+    <t>Subsubsector</t>
+  </si>
+  <si>
+    <t>TraAir</t>
+  </si>
+  <si>
+    <t>TA*</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>BPKM</t>
+  </si>
+  <si>
+    <t>BTONKM</t>
   </si>
 </sst>
 </file>
@@ -1769,6 +2159,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bruno Merven" id="{994ECD20-7E5E-4850-AAC0-0CF8DC0A9C7B}" userId="S::01405439@wf.uct.ac.za::c7f06137-2c3b-4c5c-8f38-fe1abbc96860" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2066,16 +2462,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H52" dT="2024-10-08T09:35:46.46" personId="{994ECD20-7E5E-4850-AAC0-0CF8DC0A9C7B}" id="{7F5D52BE-F1CC-4E36-BEDE-3667B2F0AC55}">
+    <text>IPPSTMELC* does not produce high pressure steam used by CHPs</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B64" dT="2024-10-08T11:03:21.51" personId="{994ECD20-7E5E-4850-AAC0-0CF8DC0A9C7B}" id="{E0138684-7423-4D42-8B93-4AFFD9F302CA}">
+    <text>Not sure what to do with Iron and Steel, and Ferrochrome here</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="E202" sqref="E202:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2089,9 +2501,9 @@
     <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.6328125" customWidth="1"/>
     <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -2137,7 +2549,7 @@
         <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -2154,7 +2566,7 @@
         <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -2171,7 +2583,7 @@
         <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -2188,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -2205,7 +2617,7 @@
         <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -2222,15 +2634,15 @@
         <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -2239,52 +2651,52 @@
         <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
         <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
         <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J11" t="s">
         <v>81</v>
@@ -2293,7 +2705,7 @@
         <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -2310,7 +2722,7 @@
         <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -2327,7 +2739,7 @@
         <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2338,30 +2750,30 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s">
         <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
       </c>
       <c r="M15" t="s">
         <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2372,1522 +2784,1510 @@
         <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16" t="s">
         <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="M17" t="s">
         <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="F18" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="H18" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="M18" t="s">
         <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="M19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="F20" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="H20" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
         <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
       </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
         <v>133</v>
       </c>
-      <c r="J23" t="s">
-        <v>134</v>
-      </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="F24" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" t="s">
         <v>218</v>
       </c>
-      <c r="F28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" t="s">
-        <v>219</v>
-      </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s">
         <v>234</v>
       </c>
-      <c r="F29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" t="s">
-        <v>235</v>
-      </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" t="s">
         <v>236</v>
       </c>
-      <c r="F30" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" t="s">
-        <v>237</v>
-      </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>517</v>
       </c>
       <c r="H48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>309</v>
+        <v>505</v>
       </c>
       <c r="F49" t="s">
-        <v>309</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M49" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" t="s">
-        <v>124</v>
+        <v>505</v>
+      </c>
+      <c r="H49" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>321</v>
+        <v>504</v>
+      </c>
+      <c r="H50" t="s">
+        <v>296</v>
       </c>
       <c r="M50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="F51" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>322</v>
+        <v>509</v>
       </c>
       <c r="M51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>319</v>
+        <v>510</v>
       </c>
       <c r="F52" t="s">
-        <v>319</v>
+        <v>510</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>323</v>
+        <v>511</v>
       </c>
       <c r="M52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" t="s">
-        <v>34</v>
+        <v>299</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="M54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s">
-        <v>35</v>
+        <v>507</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="M55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>26</v>
+        <v>508</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s">
-        <v>36</v>
+        <v>508</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="M56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>27</v>
+        <v>513</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s">
-        <v>37</v>
+        <v>513</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="M57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>28</v>
+        <v>502</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" t="s">
-        <v>120</v>
-      </c>
-      <c r="N58" t="s">
-        <v>124</v>
+        <v>502</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
-      </c>
-      <c r="H68" t="str">
-        <f>H71&amp;","&amp;H75&amp;","&amp;H76&amp;","&amp;H77&amp;","&amp;H78&amp;","&amp;H81</f>
-        <v>R??K*,C?K*,R??R*,C?R*,R??H*,C?H*,R??W*,C?W*,C?C*,I??C*,-IPPCHE*,-INMC*,-IMP*,-IIS*,I??H*,AH*,I??S*,I??K*,IALPOT,I??EAF*,IPPSTM*,IALPOTINERT,ICPSGAS-E,INMBRISTD,INMCEMK*,INMGLASTD,INMLIMSTD,IPG*,IIS*,IFCEAF*,IFMEAF*,-IISCOV*,-IISHALKHGN,-IISHGN*,-IISHDRI*,-IISMOE*,-IISSALDHGN,-IMISHGN*,-IOTSHGN*,-IFBSHGN*,-ICPSHGN*,-IPPSTMBLQ*</v>
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
       </c>
       <c r="M68" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="N68" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
-        <v>536</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
-      </c>
-      <c r="H69" t="str">
-        <f>H80&amp;","&amp;H82&amp;","&amp;H83&amp;","&amp;H7</f>
-        <v>C?T*,AI*,AP*I??A*,I??P*,I??F*,-IALPOT,-IALPOTINERT,-IISPELTS-N,IPPPAP*,I??O*,INMCEMP*,INMCEMFGRP,INMCEMFGBM,AT*,I??R*,-IPPREC*,T*</v>
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
       </c>
       <c r="M69" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="N69" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>537</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
-      </c>
-      <c r="H70" t="str">
-        <f>H72&amp;","&amp;H73&amp;","&amp;H74&amp;","&amp;H79&amp;","&amp;H83</f>
-        <v>R??L*,C?L*,I??L*,-INM*,,R??N*,ICPGASNH3-E,ICPTGMU*,C?N*,AO*,R??O*,C?O*,I??E*,-IPPSTM*,-IMP*,-IIS*,-IFM*,-IFC*,INMCLI*,IPP*,-IPGM*,-IPPPAP*,-IPPSTM*,-IPPELC*,C?G*,AT*,I??R*,-IPPREC*</v>
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>44</v>
       </c>
       <c r="M70" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="N70" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="M71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N71" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="M72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>467</v>
+      </c>
+      <c r="F73" t="s">
+        <v>467</v>
+      </c>
+      <c r="H73" t="str">
+        <f>H76&amp;","&amp;H80&amp;","&amp;H81&amp;","&amp;H82&amp;","&amp;H83&amp;","&amp;H86</f>
+        <v>R??K*,C?K*,R??R*,C?R*,R??H*,C?H*,R??W*,C?W*,C?C*,I??C*,-IPPCHE*,-INMC*,-IMP*,-IIS*,I??H*,AH*,I??S*,I??K*,IALPOT,I??EAF*,IPPSTM*,IALPOTINERT,ICPSGAS-E,INMBRISTD,INMCEMK*,INMGLASTD,INMLIMSTD,IPG*,IIS*,IFCEAF*,IFMEAF*,-IISCOV*,-IISHALKHGN,-IISHGN*,-IISHDRI*,-IISMOE*,-IISSALDHGN,-IMISHGN*,-IOTSHGN*,-IFBSHGN*,-ICPSHGN*,-IPPSTMBLQ*</v>
+      </c>
+      <c r="M73" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>468</v>
+      </c>
+      <c r="F74" t="s">
+        <v>468</v>
+      </c>
+      <c r="H74" t="str">
+        <f>H85&amp;","&amp;H87&amp;","&amp;H88&amp;","&amp;H7</f>
+        <v>C?T*,AI*,AP*I??A*,I??P*,I??F*,-IALPOT,-IALPOTINERT,-IISPELTS-N,IPPPAP*,I??O*,INMCEMP*,INMCEMFGRP,INMCEMFGBM,AT*,I??R*,-IPPREC*,T*</v>
+      </c>
+      <c r="M74" t="s">
+        <v>72</v>
+      </c>
+      <c r="N74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>469</v>
+      </c>
+      <c r="F75" t="s">
+        <v>469</v>
+      </c>
+      <c r="H75" t="str">
+        <f>H77&amp;","&amp;H78&amp;","&amp;H79&amp;","&amp;H84&amp;","&amp;H88</f>
+        <v>R??L*,C?L*,I??L*,-INM*,,R??N*,ICPGASNH3-E,ICPTGMU*,C?N*,AO*,R??O*,C?O*,I??E*,-IPPSTM*,-IMP*,-IIS*,-IFM*,-IFC*,INMCLI*,IPP*,-IPGM*,-IPPPAP*,-IPPSTM*,-IPPELC*,C?G*,AT*,I??R*,-IPPREC*</v>
+      </c>
+      <c r="M75" t="s">
+        <v>72</v>
+      </c>
+      <c r="N75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>239</v>
+      </c>
+      <c r="M76" t="s">
+        <v>119</v>
+      </c>
+      <c r="N76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E73" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="M73" t="s">
-        <v>120</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="F77" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="M74" t="s">
-        <v>120</v>
-      </c>
-      <c r="N74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M75" t="s">
-        <v>120</v>
-      </c>
-      <c r="N75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M76" t="s">
-        <v>120</v>
-      </c>
-      <c r="N76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>242</v>
+      <c r="H77" t="s">
+        <v>286</v>
       </c>
       <c r="M77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E78" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E79" s="2" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
+        <v>471</v>
+      </c>
       <c r="M79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E80" s="2" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E81" s="2" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>538</v>
+        <v>290</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E82" s="2" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>114</v>
+        <v>241</v>
+      </c>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N82" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E83" s="2" t="s">
-        <v>541</v>
+        <v>242</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>541</v>
+        <v>242</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="M83" t="s">
+        <v>119</v>
+      </c>
+      <c r="N83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E84" s="2" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>114</v>
+        <v>245</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84" t="s">
+        <v>119</v>
+      </c>
+      <c r="N84" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E85" s="2" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
+      </c>
+      <c r="M85" t="s">
+        <v>119</v>
+      </c>
+      <c r="N85" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E86" s="2" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="M86" t="s">
+        <v>119</v>
+      </c>
+      <c r="N86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E87" s="2" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E88" s="2" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>365</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E89" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E90" s="2" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E91" s="2" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N91" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E92" s="2" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E93" s="2" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E94" s="2" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E95" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E96" s="2" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E97" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E98" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E99" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E100" s="2" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E101" s="2" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>350</v>
+        <v>527</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E102" s="2" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E103" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E104" s="2" t="s">
         <v>336</v>
       </c>
@@ -3895,649 +4295,1842 @@
         <v>336</v>
       </c>
       <c r="H104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E106" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E107" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E105" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E106" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E107" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E108" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="5:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E109" s="2" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E110" s="2" t="s">
-        <v>352</v>
+        <v>553</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H110" t="s">
-        <v>353</v>
+        <v>553</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E111" s="2" t="s">
-        <v>420</v>
+        <v>551</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H111" t="s">
-        <v>423</v>
-      </c>
-      <c r="M111" t="s">
-        <v>120</v>
+        <v>551</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E112" s="2" t="s">
-        <v>421</v>
+        <v>550</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H112" t="s">
-        <v>422</v>
-      </c>
-      <c r="M112" t="s">
-        <v>120</v>
+        <v>550</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E113" s="2" t="s">
-        <v>428</v>
+        <v>545</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H113" t="s">
-        <v>450</v>
-      </c>
-      <c r="M113" t="s">
-        <v>120</v>
+        <v>545</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E114" s="2" t="s">
-        <v>432</v>
+        <v>519</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G114" s="2"/>
-      <c r="H114" t="s">
-        <v>447</v>
-      </c>
-      <c r="M114" t="s">
-        <v>120</v>
+        <v>519</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E115" s="2" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G115" s="2"/>
-      <c r="H115" t="s">
-        <v>435</v>
-      </c>
-      <c r="M115" t="s">
-        <v>120</v>
+        <v>569</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E116" s="2" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H116" t="s">
-        <v>489</v>
-      </c>
-      <c r="M116" t="s">
-        <v>120</v>
+        <v>568</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E117" s="2" t="s">
-        <v>441</v>
+        <v>570</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H117" t="s">
-        <v>440</v>
-      </c>
-      <c r="M117" t="s">
-        <v>120</v>
+        <v>570</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E118" s="2" t="s">
-        <v>430</v>
+        <v>571</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H118" t="s">
-        <v>431</v>
-      </c>
-      <c r="M118" t="s">
-        <v>120</v>
+        <v>571</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E119" s="2" t="s">
-        <v>436</v>
+        <v>562</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H119" t="s">
-        <v>437</v>
-      </c>
-      <c r="M119" t="s">
-        <v>120</v>
+        <v>562</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E120" s="2" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" t="s">
-        <v>439</v>
-      </c>
-      <c r="M120" t="s">
-        <v>120</v>
+        <v>563</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E121" s="2" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H121" t="s">
-        <v>443</v>
-      </c>
-      <c r="M121" t="s">
-        <v>120</v>
+        <v>564</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E122" s="2" t="s">
-        <v>444</v>
+        <v>580</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" t="s">
-        <v>445</v>
-      </c>
-      <c r="M122" t="s">
-        <v>120</v>
+        <v>580</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E123" s="2" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H123" t="s">
-        <v>433</v>
-      </c>
-      <c r="M123" t="s">
-        <v>120</v>
+        <v>586</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E124" s="2" t="s">
-        <v>448</v>
+        <v>587</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H124" t="s">
-        <v>449</v>
-      </c>
-      <c r="M124" t="s">
-        <v>120</v>
+        <v>587</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E125" s="2" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H125" t="s">
-        <v>490</v>
-      </c>
-      <c r="M125" t="s">
-        <v>120</v>
+        <v>588</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E126" s="2" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H126" t="s">
-        <v>497</v>
-      </c>
-      <c r="M126" t="s">
-        <v>120</v>
+        <v>589</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="N126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E127" s="2" t="s">
-        <v>454</v>
+        <v>319</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>454</v>
+        <v>319</v>
       </c>
       <c r="H127" t="s">
-        <v>491</v>
-      </c>
-      <c r="M127" t="s">
-        <v>120</v>
+        <v>320</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="N127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E128" s="2" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
       <c r="H128" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="M128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E129" s="2" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="H129" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="M129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E130" s="2" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="H130" t="s">
-        <v>461</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E131" s="2" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="H131" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="M131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E132" s="2" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="G132" s="2"/>
       <c r="H132" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="M132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E133" s="2" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G133" s="2"/>
       <c r="H133" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="M133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N133" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="5:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="5:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E134" s="2" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H134" t="s">
-        <v>463</v>
-      </c>
-      <c r="M134" t="s">
-        <v>120</v>
-      </c>
-      <c r="N134" t="s">
-        <v>124</v>
+        <v>487</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E135" s="2" t="s">
-        <v>470</v>
+        <v>392</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>470</v>
+        <v>392</v>
       </c>
       <c r="H135" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="M135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E136" s="2" t="s">
-        <v>487</v>
+        <v>381</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>487</v>
+        <v>381</v>
       </c>
       <c r="H136" t="s">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="M136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E137" s="2" t="s">
-        <v>495</v>
+        <v>387</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>495</v>
+        <v>387</v>
       </c>
       <c r="H137" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="M137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E138" s="2" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>498</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G138" s="2"/>
       <c r="H138" t="s">
-        <v>499</v>
+        <v>390</v>
+      </c>
+      <c r="M138" t="s">
+        <v>119</v>
+      </c>
+      <c r="N138" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E139" s="2" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="H139" t="s">
-        <v>511</v>
+        <v>394</v>
+      </c>
+      <c r="M139" t="s">
+        <v>119</v>
+      </c>
+      <c r="N139" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E140" s="2" t="s">
-        <v>504</v>
+        <v>395</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>506</v>
+        <v>395</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" t="s">
+        <v>396</v>
+      </c>
+      <c r="M140" t="s">
+        <v>119</v>
+      </c>
+      <c r="N140" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E141" s="2" t="s">
-        <v>507</v>
+        <v>397</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>508</v>
+        <v>397</v>
+      </c>
+      <c r="H141" t="s">
+        <v>384</v>
+      </c>
+      <c r="M141" t="s">
+        <v>119</v>
+      </c>
+      <c r="N141" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E142" s="2" t="s">
-        <v>509</v>
+        <v>399</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>509</v>
+        <v>399</v>
       </c>
       <c r="H142" t="s">
-        <v>510</v>
+        <v>400</v>
+      </c>
+      <c r="M142" t="s">
+        <v>119</v>
+      </c>
+      <c r="N142" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E143" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H143" t="s">
+        <v>432</v>
+      </c>
+      <c r="M143" t="s">
+        <v>119</v>
+      </c>
+      <c r="N143" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E144" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H144" t="s">
+        <v>412</v>
+      </c>
+      <c r="M144" t="s">
+        <v>119</v>
+      </c>
+      <c r="N144" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E145" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H145" t="s">
+        <v>416</v>
+      </c>
+      <c r="M145" t="s">
+        <v>119</v>
+      </c>
+      <c r="N145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E146" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H146" t="s">
+        <v>409</v>
+      </c>
+      <c r="M146" t="s">
+        <v>119</v>
+      </c>
+      <c r="N146" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E147" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H147" t="s">
+        <v>413</v>
+      </c>
+      <c r="M147" t="s">
+        <v>119</v>
+      </c>
+      <c r="N147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E148" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H148" t="s">
+        <v>414</v>
+      </c>
+      <c r="M148" t="s">
+        <v>119</v>
+      </c>
+      <c r="N148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E149" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H149" t="s">
+        <v>407</v>
+      </c>
+      <c r="M149" t="s">
+        <v>119</v>
+      </c>
+      <c r="N149" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E150" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H150" t="s">
+        <v>411</v>
+      </c>
+      <c r="M150" t="s">
+        <v>119</v>
+      </c>
+      <c r="N150" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H151" t="s">
+        <v>430</v>
+      </c>
+      <c r="M151" t="s">
+        <v>119</v>
+      </c>
+      <c r="N151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E152" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H152" t="s">
+        <v>434</v>
+      </c>
+      <c r="M152" t="s">
+        <v>119</v>
+      </c>
+      <c r="N152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E153" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H153" t="s">
+        <v>443</v>
+      </c>
+      <c r="M153" t="s">
+        <v>119</v>
+      </c>
+      <c r="N153" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E154" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M154" t="s">
+        <v>119</v>
+      </c>
+      <c r="N154" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M155" t="s">
+        <v>119</v>
+      </c>
+      <c r="N155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E156" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H156" t="s">
+        <v>442</v>
+      </c>
+      <c r="M156" t="s">
+        <v>119</v>
+      </c>
+      <c r="N156" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E157" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M157" t="s">
+        <v>119</v>
+      </c>
+      <c r="N157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E158" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="M158" t="s">
+        <v>119</v>
+      </c>
+      <c r="N158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E159" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M159" t="s">
+        <v>119</v>
+      </c>
+      <c r="N159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E160" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H160" t="s">
+        <v>607</v>
+      </c>
+      <c r="M160" t="s">
+        <v>119</v>
+      </c>
+      <c r="N160" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E161" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H161" t="s">
+        <v>608</v>
+      </c>
+      <c r="M161" t="s">
+        <v>119</v>
+      </c>
+      <c r="N161" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E162" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H162" t="s">
+        <v>609</v>
+      </c>
+      <c r="M162" t="s">
+        <v>119</v>
+      </c>
+      <c r="N162" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E163" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H163" t="s">
+        <v>610</v>
+      </c>
+      <c r="M163" t="s">
+        <v>119</v>
+      </c>
+      <c r="N163" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E164" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H164" t="s">
+        <v>611</v>
+      </c>
+      <c r="M164" t="s">
+        <v>119</v>
+      </c>
+      <c r="N164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E165" t="s">
+        <v>615</v>
+      </c>
+      <c r="F165" t="s">
+        <v>615</v>
+      </c>
+      <c r="J165" t="str">
+        <f>"*"&amp;LEFT(F165,3)&amp;"*"</f>
+        <v>*HCV*</v>
+      </c>
+      <c r="K165" t="s">
+        <v>219</v>
+      </c>
+      <c r="M165" t="s">
+        <v>153</v>
+      </c>
+      <c r="N165" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="166" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E166" t="s">
+        <v>616</v>
+      </c>
+      <c r="F166" t="s">
+        <v>616</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" ref="J166:J172" si="0">"*"&amp;LEFT(F166,3)&amp;"*"</f>
+        <v>*HCV*</v>
+      </c>
+      <c r="K166" t="s">
+        <v>221</v>
+      </c>
+      <c r="M166" t="s">
+        <v>153</v>
+      </c>
+      <c r="N166" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="167" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E167" t="s">
+        <v>617</v>
+      </c>
+      <c r="F167" t="s">
+        <v>617</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="0"/>
+        <v>*HCV*</v>
+      </c>
+      <c r="K167" t="s">
+        <v>651</v>
+      </c>
+      <c r="M167" t="s">
+        <v>153</v>
+      </c>
+      <c r="N167" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E168" t="s">
+        <v>618</v>
+      </c>
+      <c r="F168" t="s">
+        <v>618</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="0"/>
+        <v>*HCV*</v>
+      </c>
+      <c r="K168" t="s">
+        <v>656</v>
+      </c>
+      <c r="M168" t="s">
+        <v>153</v>
+      </c>
+      <c r="N168" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="169" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E169" t="s">
+        <v>619</v>
+      </c>
+      <c r="F169" t="s">
+        <v>619</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="0"/>
+        <v>*LCV*</v>
+      </c>
+      <c r="K169" t="str">
+        <f>K165</f>
+        <v>TRAELC</v>
+      </c>
+      <c r="M169" t="s">
+        <v>153</v>
+      </c>
+      <c r="N169" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E170" t="s">
+        <v>620</v>
+      </c>
+      <c r="F170" t="s">
+        <v>620</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="0"/>
+        <v>*LCV*</v>
+      </c>
+      <c r="K170" t="str">
+        <f>K166</f>
+        <v>TRAGAS</v>
+      </c>
+      <c r="M170" t="s">
+        <v>153</v>
+      </c>
+      <c r="N170" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="171" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E171" t="s">
+        <v>621</v>
+      </c>
+      <c r="F171" t="s">
+        <v>621</v>
+      </c>
+      <c r="I171" t="str">
+        <f>"-"&amp;I172</f>
+        <v>-*hybrid*</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="0"/>
+        <v>*LCV*</v>
+      </c>
+      <c r="K171" t="str">
+        <f>K167</f>
+        <v>TRAO??</v>
+      </c>
+      <c r="M171" t="s">
+        <v>153</v>
+      </c>
+      <c r="N171" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="172" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E172" t="s">
+        <v>622</v>
+      </c>
+      <c r="F172" t="s">
+        <v>622</v>
+      </c>
+      <c r="I172" t="s">
+        <v>657</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="0"/>
+        <v>*LCV*</v>
+      </c>
+      <c r="M172" t="s">
+        <v>153</v>
+      </c>
+      <c r="N172" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="173" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E173" t="s">
+        <v>623</v>
+      </c>
+      <c r="F173" t="s">
+        <v>623</v>
+      </c>
+      <c r="J173" t="s">
+        <v>654</v>
+      </c>
+      <c r="M173" t="s">
+        <v>153</v>
+      </c>
+      <c r="N173" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="174" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E174" t="s">
+        <v>233</v>
+      </c>
+      <c r="F174" t="s">
+        <v>233</v>
+      </c>
+      <c r="J174" t="s">
+        <v>234</v>
+      </c>
+      <c r="M174" t="s">
+        <v>153</v>
+      </c>
+      <c r="N174" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="175" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E175" t="s">
+        <v>624</v>
+      </c>
+      <c r="F175" t="s">
+        <v>624</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" ref="J175:J194" si="1">"T*"&amp;UPPER(LEFT(F175,3))&amp;"*"</f>
+        <v>T*CAR*</v>
+      </c>
+      <c r="K175" t="s">
+        <v>219</v>
+      </c>
+      <c r="M175" t="s">
+        <v>153</v>
+      </c>
+      <c r="N175" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="176" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E176" t="s">
+        <v>625</v>
+      </c>
+      <c r="F176" t="s">
+        <v>625</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="1"/>
+        <v>T*CAR*</v>
+      </c>
+      <c r="K176" t="s">
+        <v>221</v>
+      </c>
+      <c r="M176" t="s">
+        <v>153</v>
+      </c>
+      <c r="N176" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="177" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E177" t="s">
+        <v>626</v>
+      </c>
+      <c r="F177" t="s">
+        <v>626</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="1"/>
+        <v>T*CAR*</v>
+      </c>
+      <c r="K177" t="s">
+        <v>656</v>
+      </c>
+      <c r="M177" t="s">
+        <v>153</v>
+      </c>
+      <c r="N177" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="178" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E178" t="s">
+        <v>627</v>
+      </c>
+      <c r="F178" t="s">
+        <v>627</v>
+      </c>
+      <c r="I178" t="str">
+        <f>"-"&amp;I179</f>
+        <v>-*hybrid*</v>
+      </c>
+      <c r="J178" t="str">
+        <f t="shared" si="1"/>
+        <v>T*CAR*</v>
+      </c>
+      <c r="K178" t="s">
+        <v>651</v>
+      </c>
+      <c r="M178" t="s">
+        <v>153</v>
+      </c>
+      <c r="N178" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="179" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E179" t="s">
+        <v>628</v>
+      </c>
+      <c r="F179" t="s">
+        <v>628</v>
+      </c>
+      <c r="I179" t="s">
+        <v>657</v>
+      </c>
+      <c r="J179" t="str">
+        <f t="shared" si="1"/>
+        <v>T*CAR*</v>
+      </c>
+      <c r="M179" t="s">
+        <v>153</v>
+      </c>
+      <c r="N179" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="180" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E180" t="s">
+        <v>629</v>
+      </c>
+      <c r="F180" t="s">
+        <v>629</v>
+      </c>
+      <c r="J180" t="str">
+        <f t="shared" si="1"/>
+        <v>T*MOT*</v>
+      </c>
+      <c r="K180" t="s">
+        <v>219</v>
+      </c>
+      <c r="M180" t="s">
+        <v>153</v>
+      </c>
+      <c r="N180" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="181" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E181" t="s">
+        <v>630</v>
+      </c>
+      <c r="F181" t="s">
+        <v>630</v>
+      </c>
+      <c r="J181" t="str">
+        <f t="shared" si="1"/>
+        <v>T*MOT*</v>
+      </c>
+      <c r="K181" t="s">
+        <v>651</v>
+      </c>
+      <c r="M181" t="s">
+        <v>153</v>
+      </c>
+      <c r="N181" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E182" t="s">
+        <v>631</v>
+      </c>
+      <c r="F182" t="s">
+        <v>631</v>
+      </c>
+      <c r="J182" t="str">
+        <f t="shared" si="1"/>
+        <v>T*SUV*</v>
+      </c>
+      <c r="K182" t="s">
+        <v>219</v>
+      </c>
+      <c r="M182" t="s">
+        <v>153</v>
+      </c>
+      <c r="N182" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="183" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E183" t="s">
+        <v>632</v>
+      </c>
+      <c r="F183" t="s">
+        <v>632</v>
+      </c>
+      <c r="J183" t="str">
+        <f t="shared" si="1"/>
+        <v>T*SUV*</v>
+      </c>
+      <c r="K183" t="s">
+        <v>221</v>
+      </c>
+      <c r="M183" t="s">
+        <v>153</v>
+      </c>
+      <c r="N183" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="184" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E184" t="s">
+        <v>633</v>
+      </c>
+      <c r="F184" t="s">
+        <v>633</v>
+      </c>
+      <c r="J184" t="str">
+        <f t="shared" si="1"/>
+        <v>T*SUV*</v>
+      </c>
+      <c r="K184" t="s">
+        <v>656</v>
+      </c>
+      <c r="M184" t="s">
+        <v>153</v>
+      </c>
+      <c r="N184" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="185" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E185" t="s">
+        <v>634</v>
+      </c>
+      <c r="F185" t="s">
+        <v>634</v>
+      </c>
+      <c r="I185" t="str">
+        <f>"-"&amp;I186</f>
+        <v>-*hybrid*</v>
+      </c>
+      <c r="J185" t="str">
+        <f t="shared" si="1"/>
+        <v>T*SUV*</v>
+      </c>
+      <c r="K185" t="s">
+        <v>651</v>
+      </c>
+      <c r="M185" t="s">
+        <v>153</v>
+      </c>
+      <c r="N185" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="186" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E186" t="s">
+        <v>635</v>
+      </c>
+      <c r="F186" t="s">
+        <v>635</v>
+      </c>
+      <c r="I186" t="s">
+        <v>657</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" si="1"/>
+        <v>T*SUV*</v>
+      </c>
+      <c r="M186" t="s">
+        <v>153</v>
+      </c>
+      <c r="N186" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="187" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E187" t="s">
+        <v>636</v>
+      </c>
+      <c r="F187" t="s">
+        <v>636</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BRT*</v>
+      </c>
+      <c r="K187" t="s">
+        <v>219</v>
+      </c>
+      <c r="M187" t="s">
+        <v>153</v>
+      </c>
+      <c r="N187" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="188" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E188" t="s">
+        <v>637</v>
+      </c>
+      <c r="F188" t="s">
+        <v>637</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BRT*</v>
+      </c>
+      <c r="K188" t="s">
+        <v>221</v>
+      </c>
+      <c r="M188" t="s">
+        <v>153</v>
+      </c>
+      <c r="N188" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="189" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E189" t="s">
+        <v>638</v>
+      </c>
+      <c r="F189" t="s">
+        <v>638</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BRT*</v>
+      </c>
+      <c r="K189" t="s">
+        <v>656</v>
+      </c>
+      <c r="M189" t="s">
+        <v>153</v>
+      </c>
+      <c r="N189" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="190" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E190" t="s">
+        <v>639</v>
+      </c>
+      <c r="F190" t="s">
+        <v>639</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BRT*</v>
+      </c>
+      <c r="K190" t="s">
+        <v>651</v>
+      </c>
+      <c r="M190" t="s">
+        <v>153</v>
+      </c>
+      <c r="N190" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="191" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E191" t="s">
+        <v>640</v>
+      </c>
+      <c r="F191" t="s">
+        <v>640</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BUS*</v>
+      </c>
+      <c r="K191" t="s">
+        <v>219</v>
+      </c>
+      <c r="M191" t="s">
+        <v>153</v>
+      </c>
+      <c r="N191" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="192" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E192" t="s">
+        <v>641</v>
+      </c>
+      <c r="F192" t="s">
+        <v>641</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BUS*</v>
+      </c>
+      <c r="K192" t="s">
+        <v>221</v>
+      </c>
+      <c r="M192" t="s">
+        <v>153</v>
+      </c>
+      <c r="N192" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="193" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E193" t="s">
+        <v>642</v>
+      </c>
+      <c r="F193" t="s">
+        <v>642</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BUS*</v>
+      </c>
+      <c r="K193" t="s">
+        <v>656</v>
+      </c>
+      <c r="M193" t="s">
+        <v>153</v>
+      </c>
+      <c r="N193" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="194" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E194" t="s">
+        <v>643</v>
+      </c>
+      <c r="F194" t="s">
+        <v>643</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" si="1"/>
+        <v>T*BUS*</v>
+      </c>
+      <c r="K194" t="s">
+        <v>651</v>
+      </c>
+      <c r="M194" t="s">
+        <v>153</v>
+      </c>
+      <c r="N194" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="195" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E195" t="s">
+        <v>644</v>
+      </c>
+      <c r="F195" t="s">
+        <v>644</v>
+      </c>
+      <c r="J195" t="s">
+        <v>653</v>
+      </c>
+      <c r="M195" t="s">
+        <v>153</v>
+      </c>
+      <c r="N195" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="196" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E196" t="s">
+        <v>645</v>
+      </c>
+      <c r="F196" t="s">
+        <v>645</v>
+      </c>
+      <c r="J196" t="s">
+        <v>652</v>
+      </c>
+      <c r="K196" t="s">
+        <v>219</v>
+      </c>
+      <c r="M196" t="s">
+        <v>153</v>
+      </c>
+      <c r="N196" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="197" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E197" t="s">
+        <v>646</v>
+      </c>
+      <c r="F197" t="s">
+        <v>646</v>
+      </c>
+      <c r="J197" t="s">
+        <v>652</v>
+      </c>
+      <c r="K197" t="s">
+        <v>221</v>
+      </c>
+      <c r="M197" t="s">
+        <v>153</v>
+      </c>
+      <c r="N197" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="198" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E198" t="s">
+        <v>647</v>
+      </c>
+      <c r="F198" t="s">
+        <v>647</v>
+      </c>
+      <c r="J198" t="s">
+        <v>652</v>
+      </c>
+      <c r="K198" t="s">
+        <v>656</v>
+      </c>
+      <c r="M198" t="s">
+        <v>153</v>
+      </c>
+      <c r="N198" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="199" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E199" t="s">
+        <v>648</v>
+      </c>
+      <c r="F199" t="s">
+        <v>648</v>
+      </c>
+      <c r="J199" t="s">
+        <v>652</v>
+      </c>
+      <c r="K199" t="s">
+        <v>651</v>
+      </c>
+      <c r="M199" t="s">
+        <v>153</v>
+      </c>
+      <c r="N199" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="200" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E200" t="s">
+        <v>649</v>
+      </c>
+      <c r="F200" t="s">
+        <v>649</v>
+      </c>
+      <c r="I200" t="s">
+        <v>657</v>
+      </c>
+      <c r="J200" t="s">
+        <v>652</v>
+      </c>
+      <c r="M200" t="s">
+        <v>153</v>
+      </c>
+      <c r="N200" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="201" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E201" t="s">
+        <v>650</v>
+      </c>
+      <c r="F201" t="s">
+        <v>650</v>
+      </c>
+      <c r="J201" t="s">
+        <v>655</v>
+      </c>
+      <c r="M201" t="s">
+        <v>153</v>
+      </c>
+      <c r="N201" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="202" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E202" t="s">
+        <v>659</v>
+      </c>
+      <c r="F202" t="s">
+        <v>659</v>
+      </c>
+      <c r="J202" t="s">
+        <v>660</v>
+      </c>
+      <c r="M202" t="s">
+        <v>153</v>
+      </c>
+      <c r="N202" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4549,7 +6142,7 @@
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -4633,7 +6226,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="H6" t="s">
         <v>72</v>
@@ -4644,10 +6237,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>72</v>
@@ -4658,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -4676,7 +6269,7 @@
         <v>AGR*,COM*,RES*,TRA*,IND*,I??BI*,I??ELC,COK</v>
       </c>
       <c r="D9" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
@@ -4687,10 +6280,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -4701,10 +6294,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
@@ -4715,10 +6308,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
@@ -4729,10 +6322,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="H13" t="s">
         <v>72</v>
@@ -4743,10 +6336,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="H14" t="s">
         <v>72</v>
@@ -4757,10 +6350,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="H15" t="s">
         <v>72</v>
@@ -4774,7 +6367,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
         <v>72</v>
@@ -4785,10 +6378,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
         <v>72</v>
@@ -4799,7 +6392,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -4855,7 +6448,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -4869,11 +6462,11 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4887,11 +6480,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4905,11 +6498,11 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4923,11 +6516,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4941,11 +6534,11 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4959,11 +6552,11 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4977,17 +6570,17 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -4995,17 +6588,17 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -5013,17 +6606,17 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -5031,305 +6624,311 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>316</v>
+        <v>479</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>305</v>
+      <c r="D34" s="2" t="str">
+        <f>B34</f>
+        <v>ICPELC</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>306</v>
+        <v>480</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>301</v>
+      <c r="D35" s="2" t="str">
+        <f t="shared" ref="D35:D38" si="0">B35</f>
+        <v>IFAELC</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>307</v>
+        <v>481</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>302</v>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IFBELC</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>308</v>
+        <v>482</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>303</v>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IISELC</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>311</v>
+        <v>483</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>304</v>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IMIELC</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>314</v>
+        <v>484</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>315</v>
+      <c r="D39" s="2" t="str">
+        <f>B39</f>
+        <v>INFELC</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>485</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>312</v>
+      <c r="D40" s="2" t="str">
+        <f t="shared" ref="D40:D41" si="1">B40</f>
+        <v>INMELC</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>240</v>
+        <v>486</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>169</v>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>IOTELC</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>170</v>
+        <v>478</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>171</v>
+        <v>496</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>172</v>
+        <v>495</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>241</v>
+        <v>493</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+        <v>497</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>525</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>528</v>
+        <v>170</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -5337,107 +6936,107 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>526</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>527</v>
+        <v>171</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>227</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>231</v>
+        <v>459</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -5445,17 +7044,17 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -5463,526 +7062,876 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I60" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" t="s">
-        <v>354</v>
-      </c>
+      <c r="D61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" t="s">
-        <v>355</v>
-      </c>
+      <c r="D62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D63" t="s">
-        <v>356</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D64" t="s">
-        <v>357</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>392</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>389</v>
+        <v>325</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
+      </c>
+      <c r="D69" t="s">
+        <v>324</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>410</v>
+        <v>54</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>398</v>
+        <v>528</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B71" t="s">
-        <v>401</v>
+      <c r="B71" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>400</v>
+        <v>537</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>403</v>
+        <v>536</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>402</v>
+        <v>538</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>409</v>
+        <v>532</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>412</v>
+      <c r="B76" t="s">
+        <v>365</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>416</v>
+      <c r="B77" t="s">
+        <v>356</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>419</v>
+      <c r="B78" t="s">
+        <v>534</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>418</v>
+        <v>533</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>503</v>
+        <v>358</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>464</v>
+        <v>359</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>472</v>
+        <v>363</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>502</v>
+        <v>362</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>482</v>
+        <v>366</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>476</v>
+        <v>367</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>477</v>
+        <v>368</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>484</v>
+        <v>371</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>478</v>
+        <v>370</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>120</v>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5992,7 +7941,7 @@
   <dimension ref="G2:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6027,364 +7976,364 @@
         <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" t="s">
         <v>152</v>
-      </c>
-      <c r="O9" t="s">
-        <v>154</v>
-      </c>
-      <c r="P9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" t="s">
         <v>176</v>
       </c>
-      <c r="H10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" t="s">
-        <v>177</v>
-      </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
         <v>178</v>
       </c>
-      <c r="H11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" t="s">
-        <v>179</v>
-      </c>
       <c r="O11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" t="s">
         <v>180</v>
       </c>
-      <c r="H12" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" t="s">
-        <v>181</v>
-      </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" t="s">
         <v>182</v>
       </c>
-      <c r="H13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J13" t="s">
-        <v>183</v>
-      </c>
       <c r="O13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" t="s">
         <v>184</v>
       </c>
-      <c r="H14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" t="s">
-        <v>185</v>
-      </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" t="s">
         <v>186</v>
       </c>
-      <c r="H15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" t="s">
-        <v>187</v>
-      </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" t="s">
-        <v>189</v>
-      </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17" t="s">
         <v>204</v>
       </c>
-      <c r="H17" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" t="s">
-        <v>205</v>
-      </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" t="s">
         <v>206</v>
       </c>
-      <c r="H18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" t="s">
-        <v>207</v>
-      </c>
       <c r="O18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
         <v>208</v>
       </c>
-      <c r="H19" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" t="s">
-        <v>209</v>
-      </c>
       <c r="O19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
         <v>210</v>
       </c>
-      <c r="H20" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" t="s">
-        <v>211</v>
-      </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
         <v>212</v>
       </c>
-      <c r="H21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" t="s">
-        <v>213</v>
-      </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
         <v>214</v>
       </c>
-      <c r="H22" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" t="s">
-        <v>215</v>
-      </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
         <v>216</v>
       </c>
-      <c r="H23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" t="s">
-        <v>217</v>
-      </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
